--- a/BaseDatos.xlsx
+++ b/BaseDatos.xlsx
@@ -5,22 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/unimooc/Dropbox/2021/Directorio R/Accessibility/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/unimooc/Dropbox/2021/Directorio R/cursoR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12AAF49-CCE2-C349-8D0B-6A14BE7769EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8443B01E-B82A-8946-A578-5551B186943E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="11580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Interior" sheetId="2" r:id="rId2"/>
-    <sheet name="SolPlaya" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Interior!$A$1:$Q$121</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AO$115</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SolPlaya!$A$1:$Q$115</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Municipios</t>
   </si>
@@ -433,6 +429,9 @@
   </si>
   <si>
     <t>S.S</t>
+  </si>
+  <si>
+    <t>TurApp</t>
   </si>
 </sst>
 </file>
@@ -527,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -595,6 +594,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,7 +613,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1005,7 +1005,9 @@
       <c r="Q1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="R1" s="4"/>
+      <c r="R1" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -1086,7 +1088,9 @@
       <c r="Q2" s="14">
         <v>2.09</v>
       </c>
-      <c r="R2" s="14"/>
+      <c r="R2" s="31">
+        <v>1</v>
+      </c>
       <c r="S2" s="9"/>
       <c r="T2" s="6"/>
       <c r="U2" s="10"/>
@@ -1167,7 +1171,9 @@
       <c r="Q3" s="14">
         <v>1.07</v>
       </c>
-      <c r="R3" s="14"/>
+      <c r="R3" s="31">
+        <v>0</v>
+      </c>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="10"/>
@@ -1248,7 +1254,9 @@
       <c r="Q4" s="14">
         <v>0</v>
       </c>
-      <c r="R4" s="14"/>
+      <c r="R4" s="31">
+        <v>1</v>
+      </c>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="10"/>
@@ -1329,7 +1337,9 @@
       <c r="Q5" s="14">
         <v>0</v>
       </c>
-      <c r="R5" s="14"/>
+      <c r="R5" s="31">
+        <v>0</v>
+      </c>
       <c r="S5" s="9"/>
       <c r="T5" s="22"/>
       <c r="U5" s="10"/>
@@ -1410,7 +1420,9 @@
       <c r="Q6" s="14">
         <v>1.62</v>
       </c>
-      <c r="R6" s="14"/>
+      <c r="R6" s="31">
+        <v>1</v>
+      </c>
       <c r="S6" s="9"/>
       <c r="T6" s="6"/>
       <c r="U6" s="10"/>
@@ -1491,7 +1503,9 @@
       <c r="Q7" s="14">
         <v>1.29</v>
       </c>
-      <c r="R7" s="14"/>
+      <c r="R7" s="31">
+        <v>1</v>
+      </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="10"/>
@@ -1572,7 +1586,9 @@
       <c r="Q8" s="14">
         <v>0.61</v>
       </c>
-      <c r="R8" s="14"/>
+      <c r="R8" s="31">
+        <v>0</v>
+      </c>
       <c r="S8" s="6"/>
       <c r="T8" s="22"/>
       <c r="U8" s="10"/>
@@ -1653,7 +1669,9 @@
       <c r="Q9" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R9" s="14"/>
+      <c r="R9" s="31">
+        <v>0</v>
+      </c>
       <c r="S9" s="6"/>
       <c r="T9" s="22"/>
       <c r="U9" s="10"/>
@@ -1734,7 +1752,9 @@
       <c r="Q10" s="14">
         <v>1.46</v>
       </c>
-      <c r="R10" s="14"/>
+      <c r="R10" s="31">
+        <v>1</v>
+      </c>
       <c r="S10" s="9"/>
       <c r="T10" s="6"/>
       <c r="U10" s="10"/>
@@ -1815,7 +1835,9 @@
       <c r="Q11" s="14">
         <v>0.93</v>
       </c>
-      <c r="R11" s="14"/>
+      <c r="R11" s="31">
+        <v>1</v>
+      </c>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="10"/>
@@ -1896,7 +1918,9 @@
       <c r="Q12" s="14">
         <v>0.46</v>
       </c>
-      <c r="R12" s="14"/>
+      <c r="R12" s="31">
+        <v>1</v>
+      </c>
       <c r="S12" s="6"/>
       <c r="T12" s="22"/>
       <c r="U12" s="10"/>
@@ -1977,7 +2001,9 @@
       <c r="Q13" s="14">
         <v>2.86</v>
       </c>
-      <c r="R13" s="14"/>
+      <c r="R13" s="31">
+        <v>1</v>
+      </c>
       <c r="S13" s="9"/>
       <c r="T13" s="6"/>
       <c r="U13" s="10"/>
@@ -2058,7 +2084,9 @@
       <c r="Q14" s="14">
         <v>1.17</v>
       </c>
-      <c r="R14" s="14"/>
+      <c r="R14" s="31">
+        <v>0</v>
+      </c>
       <c r="S14" s="9"/>
       <c r="T14" s="6"/>
       <c r="U14" s="10"/>
@@ -2139,7 +2167,9 @@
       <c r="Q15" s="14">
         <v>0.4</v>
       </c>
-      <c r="R15" s="14"/>
+      <c r="R15" s="31">
+        <v>0</v>
+      </c>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="10"/>
@@ -2220,7 +2250,9 @@
       <c r="Q16" s="14">
         <v>0.76</v>
       </c>
-      <c r="R16" s="14"/>
+      <c r="R16" s="31">
+        <v>1</v>
+      </c>
       <c r="S16" s="6"/>
       <c r="T16" s="22"/>
       <c r="U16" s="10"/>
@@ -2301,7 +2333,9 @@
       <c r="Q17" s="14">
         <v>0.59</v>
       </c>
-      <c r="R17" s="14"/>
+      <c r="R17" s="31">
+        <v>0</v>
+      </c>
       <c r="S17" s="9"/>
       <c r="T17" s="6"/>
       <c r="U17" s="10"/>
@@ -2382,7 +2416,9 @@
       <c r="Q18" s="14">
         <v>2.02</v>
       </c>
-      <c r="R18" s="14"/>
+      <c r="R18" s="31">
+        <v>0</v>
+      </c>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="10"/>
@@ -2463,7 +2499,9 @@
       <c r="Q19" s="14">
         <v>0.85</v>
       </c>
-      <c r="R19" s="14"/>
+      <c r="R19" s="31">
+        <v>0</v>
+      </c>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
       <c r="U19" s="10"/>
@@ -2544,7 +2582,9 @@
       <c r="Q20" s="14">
         <v>1.74</v>
       </c>
-      <c r="R20" s="14"/>
+      <c r="R20" s="31">
+        <v>0</v>
+      </c>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
       <c r="U20" s="10"/>
@@ -2625,7 +2665,9 @@
       <c r="Q21" s="14">
         <v>0.93</v>
       </c>
-      <c r="R21" s="14"/>
+      <c r="R21" s="31">
+        <v>0</v>
+      </c>
       <c r="S21" s="6"/>
       <c r="T21" s="22"/>
       <c r="U21" s="10"/>
@@ -2706,7 +2748,9 @@
       <c r="Q22" s="14">
         <v>0.69</v>
       </c>
-      <c r="R22" s="14"/>
+      <c r="R22" s="31">
+        <v>0</v>
+      </c>
       <c r="S22" s="6"/>
       <c r="T22" s="22"/>
       <c r="U22" s="10"/>
@@ -2787,7 +2831,9 @@
       <c r="Q23" s="14">
         <v>1.19</v>
       </c>
-      <c r="R23" s="14"/>
+      <c r="R23" s="31">
+        <v>0</v>
+      </c>
       <c r="S23" s="9"/>
       <c r="T23" s="22"/>
       <c r="U23" s="10"/>
@@ -2868,7 +2914,9 @@
       <c r="Q24" s="14">
         <v>0</v>
       </c>
-      <c r="R24" s="14"/>
+      <c r="R24" s="31">
+        <v>0</v>
+      </c>
       <c r="S24" s="6"/>
       <c r="T24" s="22"/>
       <c r="U24" s="10"/>
@@ -2949,7 +2997,9 @@
       <c r="Q25" s="14">
         <v>0.7</v>
       </c>
-      <c r="R25" s="14"/>
+      <c r="R25" s="31">
+        <v>0</v>
+      </c>
       <c r="S25" s="6"/>
       <c r="T25" s="22"/>
       <c r="U25" s="10"/>
@@ -3030,7 +3080,9 @@
       <c r="Q26" s="14">
         <v>0.83</v>
       </c>
-      <c r="R26" s="14"/>
+      <c r="R26" s="31">
+        <v>0</v>
+      </c>
       <c r="S26" s="9"/>
       <c r="T26" s="6"/>
       <c r="U26" s="10"/>
@@ -3111,7 +3163,9 @@
       <c r="Q27" s="14">
         <v>0.9</v>
       </c>
-      <c r="R27" s="14"/>
+      <c r="R27" s="31">
+        <v>0</v>
+      </c>
       <c r="S27" s="6"/>
       <c r="T27" s="22"/>
       <c r="U27" s="10"/>
@@ -3192,7 +3246,9 @@
       <c r="Q28" s="14">
         <v>1.37</v>
       </c>
-      <c r="R28" s="14"/>
+      <c r="R28" s="31">
+        <v>0</v>
+      </c>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
       <c r="U28" s="10"/>
@@ -3273,7 +3329,9 @@
       <c r="Q29" s="14">
         <v>0.39</v>
       </c>
-      <c r="R29" s="14"/>
+      <c r="R29" s="31">
+        <v>0</v>
+      </c>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="10"/>
@@ -3354,7 +3412,9 @@
       <c r="Q30" s="14">
         <v>0.87</v>
       </c>
-      <c r="R30" s="14"/>
+      <c r="R30" s="31">
+        <v>0</v>
+      </c>
       <c r="S30" s="6"/>
       <c r="T30" s="22"/>
       <c r="U30" s="10"/>
@@ -3435,7 +3495,9 @@
       <c r="Q31" s="14">
         <v>0.46</v>
       </c>
-      <c r="R31" s="14"/>
+      <c r="R31" s="31">
+        <v>0</v>
+      </c>
       <c r="S31" s="6"/>
       <c r="T31" s="22"/>
       <c r="U31" s="10"/>
@@ -3516,7 +3578,9 @@
       <c r="Q32" s="14">
         <v>0.62</v>
       </c>
-      <c r="R32" s="14"/>
+      <c r="R32" s="31">
+        <v>1</v>
+      </c>
       <c r="S32" s="9"/>
       <c r="T32" s="22"/>
       <c r="U32" s="10"/>
@@ -3597,7 +3661,9 @@
       <c r="Q33" s="14">
         <v>1.1299999999999999</v>
       </c>
-      <c r="R33" s="14"/>
+      <c r="R33" s="31">
+        <v>0</v>
+      </c>
       <c r="S33" s="9"/>
       <c r="T33" s="6"/>
       <c r="U33" s="10"/>
@@ -3678,7 +3744,9 @@
       <c r="Q34" s="14">
         <v>1.58</v>
       </c>
-      <c r="R34" s="14"/>
+      <c r="R34" s="31">
+        <v>1</v>
+      </c>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
       <c r="U34" s="10"/>
@@ -3759,7 +3827,9 @@
       <c r="Q35" s="14">
         <v>1</v>
       </c>
-      <c r="R35" s="14"/>
+      <c r="R35" s="31">
+        <v>1</v>
+      </c>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
       <c r="U35" s="10"/>
@@ -3840,7 +3910,9 @@
       <c r="Q36" s="14">
         <v>1.21</v>
       </c>
-      <c r="R36" s="14"/>
+      <c r="R36" s="31">
+        <v>0</v>
+      </c>
       <c r="S36" s="9"/>
       <c r="T36" s="22"/>
       <c r="U36" s="10"/>
@@ -3921,7 +3993,9 @@
       <c r="Q37" s="14">
         <v>1.51</v>
       </c>
-      <c r="R37" s="14"/>
+      <c r="R37" s="31">
+        <v>0</v>
+      </c>
       <c r="S37" s="9"/>
       <c r="T37" s="6"/>
       <c r="U37" s="10"/>
@@ -4002,7 +4076,9 @@
       <c r="Q38" s="14">
         <v>0.97</v>
       </c>
-      <c r="R38" s="14"/>
+      <c r="R38" s="31">
+        <v>1</v>
+      </c>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
       <c r="U38" s="10"/>
@@ -4083,7 +4159,9 @@
       <c r="Q39" s="14">
         <v>1.03</v>
       </c>
-      <c r="R39" s="14"/>
+      <c r="R39" s="31">
+        <v>0</v>
+      </c>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
       <c r="U39" s="10"/>
@@ -4164,7 +4242,9 @@
       <c r="Q40" s="14">
         <v>0.91</v>
       </c>
-      <c r="R40" s="14"/>
+      <c r="R40" s="31">
+        <v>0</v>
+      </c>
       <c r="S40" s="9"/>
       <c r="T40" s="22"/>
       <c r="U40" s="10"/>
@@ -4245,7 +4325,9 @@
       <c r="Q41" s="14">
         <v>1.1299999999999999</v>
       </c>
-      <c r="R41" s="14"/>
+      <c r="R41" s="31">
+        <v>0</v>
+      </c>
       <c r="S41" s="9"/>
       <c r="T41" s="6"/>
       <c r="U41" s="10"/>
@@ -4326,7 +4408,9 @@
       <c r="Q42" s="14">
         <v>1.28</v>
       </c>
-      <c r="R42" s="14"/>
+      <c r="R42" s="31">
+        <v>0</v>
+      </c>
       <c r="S42" s="6"/>
       <c r="T42" s="22"/>
       <c r="U42" s="10"/>
@@ -4407,7 +4491,9 @@
       <c r="Q43" s="14">
         <v>1.26</v>
       </c>
-      <c r="R43" s="14"/>
+      <c r="R43" s="31">
+        <v>0</v>
+      </c>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
       <c r="U43" s="10"/>
@@ -4488,7 +4574,9 @@
       <c r="Q44" s="14">
         <v>1.42</v>
       </c>
-      <c r="R44" s="14"/>
+      <c r="R44" s="31">
+        <v>0</v>
+      </c>
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
       <c r="U44" s="10"/>
@@ -4569,7 +4657,9 @@
       <c r="Q45" s="14">
         <v>0.54</v>
       </c>
-      <c r="R45" s="14"/>
+      <c r="R45" s="31">
+        <v>1</v>
+      </c>
       <c r="S45" s="6"/>
       <c r="T45" s="22"/>
       <c r="U45" s="10"/>
@@ -4650,7 +4740,9 @@
       <c r="Q46" s="14">
         <v>0.78</v>
       </c>
-      <c r="R46" s="14"/>
+      <c r="R46" s="31">
+        <v>0</v>
+      </c>
       <c r="S46" s="6"/>
       <c r="T46" s="22"/>
       <c r="U46" s="10"/>
@@ -4731,7 +4823,9 @@
       <c r="Q47" s="14">
         <v>0.37</v>
       </c>
-      <c r="R47" s="14"/>
+      <c r="R47" s="31">
+        <v>0</v>
+      </c>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
       <c r="U47" s="10"/>
@@ -4812,7 +4906,9 @@
       <c r="Q48" s="14">
         <v>0.91</v>
       </c>
-      <c r="R48" s="14"/>
+      <c r="R48" s="31">
+        <v>0</v>
+      </c>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
       <c r="U48" s="10"/>
@@ -4893,7 +4989,9 @@
       <c r="Q49" s="14">
         <v>1.78</v>
       </c>
-      <c r="R49" s="14"/>
+      <c r="R49" s="31">
+        <v>0</v>
+      </c>
       <c r="S49" s="9"/>
       <c r="T49" s="6"/>
       <c r="U49" s="10"/>
@@ -4974,7 +5072,9 @@
       <c r="Q50" s="14">
         <v>1.49</v>
       </c>
-      <c r="R50" s="14"/>
+      <c r="R50" s="31">
+        <v>0</v>
+      </c>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
       <c r="U50" s="10"/>
@@ -5055,7 +5155,9 @@
       <c r="Q51" s="14">
         <v>1.43</v>
       </c>
-      <c r="R51" s="14"/>
+      <c r="R51" s="31">
+        <v>0</v>
+      </c>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
       <c r="U51" s="10"/>
@@ -5136,7 +5238,9 @@
       <c r="Q52" s="14">
         <v>0</v>
       </c>
-      <c r="R52" s="14"/>
+      <c r="R52" s="31">
+        <v>0</v>
+      </c>
       <c r="S52" s="6"/>
       <c r="T52" s="22"/>
       <c r="U52" s="10"/>
@@ -5217,7 +5321,9 @@
       <c r="Q53" s="14">
         <v>0.63</v>
       </c>
-      <c r="R53" s="14"/>
+      <c r="R53" s="31">
+        <v>0</v>
+      </c>
       <c r="S53" s="9"/>
       <c r="T53" s="22"/>
       <c r="U53" s="10"/>
@@ -5298,7 +5404,9 @@
       <c r="Q54" s="14">
         <v>0.73</v>
       </c>
-      <c r="R54" s="14"/>
+      <c r="R54" s="31">
+        <v>1</v>
+      </c>
       <c r="S54" s="6"/>
       <c r="T54" s="22"/>
       <c r="U54" s="10"/>
@@ -5379,7 +5487,9 @@
       <c r="Q55" s="14">
         <v>0.96</v>
       </c>
-      <c r="R55" s="14"/>
+      <c r="R55" s="31">
+        <v>0</v>
+      </c>
       <c r="S55" s="6"/>
       <c r="T55" s="6"/>
       <c r="U55" s="10"/>
@@ -5460,7 +5570,9 @@
       <c r="Q56" s="14">
         <v>0.9</v>
       </c>
-      <c r="R56" s="14"/>
+      <c r="R56" s="31">
+        <v>1</v>
+      </c>
       <c r="S56" s="6"/>
       <c r="T56" s="6"/>
       <c r="U56" s="10"/>
@@ -5541,7 +5653,9 @@
       <c r="Q57" s="14">
         <v>3.26</v>
       </c>
-      <c r="R57" s="14"/>
+      <c r="R57" s="31">
+        <v>1</v>
+      </c>
       <c r="S57" s="9"/>
       <c r="T57" s="6"/>
       <c r="U57" s="10"/>
@@ -5622,7 +5736,9 @@
       <c r="Q58" s="14">
         <v>1.69</v>
       </c>
-      <c r="R58" s="14"/>
+      <c r="R58" s="31">
+        <v>0</v>
+      </c>
       <c r="S58" s="9"/>
       <c r="T58" s="6"/>
       <c r="U58" s="10"/>
@@ -5703,7 +5819,9 @@
       <c r="Q59" s="14">
         <v>1.17</v>
       </c>
-      <c r="R59" s="14"/>
+      <c r="R59" s="31">
+        <v>0</v>
+      </c>
       <c r="S59" s="9"/>
       <c r="T59" s="6"/>
       <c r="U59" s="10"/>
@@ -5784,7 +5902,9 @@
       <c r="Q60" s="14">
         <v>1.26</v>
       </c>
-      <c r="R60" s="14"/>
+      <c r="R60" s="31">
+        <v>0</v>
+      </c>
       <c r="S60" s="6"/>
       <c r="T60" s="6"/>
       <c r="U60" s="10"/>
@@ -5865,7 +5985,9 @@
       <c r="Q61" s="14">
         <v>0.96</v>
       </c>
-      <c r="R61" s="14"/>
+      <c r="R61" s="31">
+        <v>1</v>
+      </c>
       <c r="S61" s="9"/>
       <c r="T61" s="6"/>
       <c r="U61" s="11"/>
@@ -5946,7 +6068,9 @@
       <c r="Q62" s="14">
         <v>0.83</v>
       </c>
-      <c r="R62" s="14"/>
+      <c r="R62" s="31">
+        <v>0</v>
+      </c>
       <c r="S62" s="6"/>
       <c r="T62" s="22"/>
       <c r="U62" s="11"/>
@@ -6027,7 +6151,9 @@
       <c r="Q63" s="14">
         <v>1.2</v>
       </c>
-      <c r="R63" s="14"/>
+      <c r="R63" s="31">
+        <v>0</v>
+      </c>
       <c r="S63" s="6"/>
       <c r="T63" s="6"/>
       <c r="U63" s="11"/>
@@ -6108,7 +6234,9 @@
       <c r="Q64" s="14">
         <v>1.31</v>
       </c>
-      <c r="R64" s="14"/>
+      <c r="R64" s="31">
+        <v>1</v>
+      </c>
       <c r="S64" s="6"/>
       <c r="T64" s="6"/>
       <c r="U64" s="10"/>
@@ -6189,7 +6317,9 @@
       <c r="Q65" s="14">
         <v>0.17</v>
       </c>
-      <c r="R65" s="14"/>
+      <c r="R65" s="31">
+        <v>0</v>
+      </c>
       <c r="S65" s="6"/>
       <c r="T65" s="22"/>
       <c r="U65" s="10"/>
@@ -6270,7 +6400,9 @@
       <c r="Q66" s="14">
         <v>0.37</v>
       </c>
-      <c r="R66" s="14"/>
+      <c r="R66" s="31">
+        <v>0</v>
+      </c>
       <c r="S66" s="6"/>
       <c r="T66" s="6"/>
       <c r="U66" s="10"/>
@@ -6351,7 +6483,9 @@
       <c r="Q67" s="14">
         <v>0.43</v>
       </c>
-      <c r="R67" s="14"/>
+      <c r="R67" s="31">
+        <v>1</v>
+      </c>
       <c r="S67" s="9"/>
       <c r="T67" s="6"/>
       <c r="U67" s="10"/>
@@ -6432,7 +6566,9 @@
       <c r="Q68" s="14">
         <v>0.32</v>
       </c>
-      <c r="R68" s="14"/>
+      <c r="R68" s="31">
+        <v>0</v>
+      </c>
       <c r="S68" s="6"/>
       <c r="T68" s="6"/>
       <c r="U68" s="10"/>
@@ -6513,7 +6649,9 @@
       <c r="Q69" s="14">
         <v>1.56</v>
       </c>
-      <c r="R69" s="14"/>
+      <c r="R69" s="31">
+        <v>1</v>
+      </c>
       <c r="S69" s="6"/>
       <c r="T69" s="6"/>
       <c r="U69" s="10"/>
@@ -6594,7 +6732,9 @@
       <c r="Q70" s="14">
         <v>0.5</v>
       </c>
-      <c r="R70" s="14"/>
+      <c r="R70" s="31">
+        <v>0</v>
+      </c>
       <c r="S70" s="6"/>
       <c r="T70" s="6"/>
       <c r="U70" s="10"/>
@@ -6675,7 +6815,9 @@
       <c r="Q71" s="14">
         <v>1.46</v>
       </c>
-      <c r="R71" s="14"/>
+      <c r="R71" s="31">
+        <v>1</v>
+      </c>
       <c r="S71" s="9"/>
       <c r="T71" s="6"/>
       <c r="U71" s="10"/>
@@ -6756,7 +6898,9 @@
       <c r="Q72" s="14">
         <v>1.44</v>
       </c>
-      <c r="R72" s="14"/>
+      <c r="R72" s="31">
+        <v>1</v>
+      </c>
       <c r="S72" s="6"/>
       <c r="T72" s="6"/>
       <c r="U72" s="10"/>
@@ -6837,7 +6981,9 @@
       <c r="Q73" s="14">
         <v>0.28999999999999998</v>
       </c>
-      <c r="R73" s="14"/>
+      <c r="R73" s="31">
+        <v>0</v>
+      </c>
       <c r="S73" s="9"/>
       <c r="T73" s="22"/>
       <c r="U73" s="10"/>
@@ -6918,7 +7064,9 @@
       <c r="Q74" s="14">
         <v>1.45</v>
       </c>
-      <c r="R74" s="14"/>
+      <c r="R74" s="31">
+        <v>0</v>
+      </c>
       <c r="S74" s="6"/>
       <c r="T74" s="6"/>
       <c r="U74" s="10"/>
@@ -6999,7 +7147,9 @@
       <c r="Q75" s="14">
         <v>0.21</v>
       </c>
-      <c r="R75" s="14"/>
+      <c r="R75" s="31">
+        <v>1</v>
+      </c>
       <c r="S75" s="6"/>
       <c r="T75" s="22"/>
       <c r="U75" s="10"/>
@@ -7080,7 +7230,9 @@
       <c r="Q76" s="14">
         <v>0.34</v>
       </c>
-      <c r="R76" s="14"/>
+      <c r="R76" s="31">
+        <v>0</v>
+      </c>
       <c r="S76" s="6"/>
       <c r="T76" s="22"/>
       <c r="U76" s="10"/>
@@ -7161,7 +7313,9 @@
       <c r="Q77" s="14">
         <v>0.69</v>
       </c>
-      <c r="R77" s="14"/>
+      <c r="R77" s="31">
+        <v>1</v>
+      </c>
       <c r="S77" s="6"/>
       <c r="T77" s="6"/>
       <c r="U77" s="10"/>
@@ -7242,7 +7396,9 @@
       <c r="Q78" s="14">
         <v>1.03</v>
       </c>
-      <c r="R78" s="14"/>
+      <c r="R78" s="31">
+        <v>1</v>
+      </c>
       <c r="S78" s="6"/>
       <c r="T78" s="22"/>
       <c r="U78" s="10"/>
@@ -7323,7 +7479,9 @@
       <c r="Q79" s="14">
         <v>0.79</v>
       </c>
-      <c r="R79" s="14"/>
+      <c r="R79" s="31">
+        <v>0</v>
+      </c>
       <c r="S79" s="9"/>
       <c r="T79" s="22"/>
       <c r="U79" s="10"/>
@@ -7404,7 +7562,9 @@
       <c r="Q80" s="14">
         <v>1.05</v>
       </c>
-      <c r="R80" s="14"/>
+      <c r="R80" s="31">
+        <v>1</v>
+      </c>
       <c r="S80" s="6"/>
       <c r="T80" s="6"/>
       <c r="U80" s="10"/>
@@ -7485,7 +7645,9 @@
       <c r="Q81" s="14">
         <v>0</v>
       </c>
-      <c r="R81" s="14"/>
+      <c r="R81" s="31">
+        <v>0</v>
+      </c>
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
       <c r="U81" s="10"/>
@@ -7566,7 +7728,9 @@
       <c r="Q82" s="14">
         <v>0.7</v>
       </c>
-      <c r="R82" s="14"/>
+      <c r="R82" s="31">
+        <v>0</v>
+      </c>
       <c r="S82" s="9"/>
       <c r="T82" s="22"/>
       <c r="U82" s="10"/>
@@ -7647,7 +7811,9 @@
       <c r="Q83" s="14">
         <v>1.34</v>
       </c>
-      <c r="R83" s="14"/>
+      <c r="R83" s="31">
+        <v>0</v>
+      </c>
       <c r="S83" s="9"/>
       <c r="T83" s="6"/>
       <c r="U83" s="10"/>
@@ -7728,7 +7894,9 @@
       <c r="Q84" s="14">
         <v>1.04</v>
       </c>
-      <c r="R84" s="14"/>
+      <c r="R84" s="31">
+        <v>1</v>
+      </c>
       <c r="S84" s="6"/>
       <c r="T84" s="22"/>
       <c r="U84" s="10"/>
@@ -7809,7 +7977,9 @@
       <c r="Q85" s="14">
         <v>0.27</v>
       </c>
-      <c r="R85" s="14"/>
+      <c r="R85" s="31">
+        <v>0</v>
+      </c>
       <c r="S85" s="6"/>
       <c r="T85" s="22"/>
       <c r="U85" s="10"/>
@@ -7890,7 +8060,9 @@
       <c r="Q86" s="14">
         <v>1.81</v>
       </c>
-      <c r="R86" s="14"/>
+      <c r="R86" s="31">
+        <v>1</v>
+      </c>
       <c r="S86" s="9"/>
       <c r="T86" s="6"/>
       <c r="U86" s="10"/>
@@ -7971,7 +8143,9 @@
       <c r="Q87" s="14">
         <v>0</v>
       </c>
-      <c r="R87" s="14"/>
+      <c r="R87" s="31">
+        <v>0</v>
+      </c>
       <c r="S87" s="6"/>
       <c r="T87" s="22"/>
       <c r="U87" s="10"/>
@@ -8052,7 +8226,9 @@
       <c r="Q88" s="14">
         <v>0.34</v>
       </c>
-      <c r="R88" s="14"/>
+      <c r="R88" s="31">
+        <v>0</v>
+      </c>
       <c r="S88" s="6"/>
       <c r="T88" s="22"/>
       <c r="U88" s="10"/>
@@ -8133,7 +8309,9 @@
       <c r="Q89" s="14">
         <v>0.37</v>
       </c>
-      <c r="R89" s="14"/>
+      <c r="R89" s="31">
+        <v>0</v>
+      </c>
       <c r="S89" s="6"/>
       <c r="T89" s="6"/>
       <c r="U89" s="10"/>
@@ -8214,7 +8392,9 @@
       <c r="Q90" s="14">
         <v>0.5</v>
       </c>
-      <c r="R90" s="14"/>
+      <c r="R90" s="31">
+        <v>0</v>
+      </c>
       <c r="S90" s="9"/>
       <c r="T90" s="22"/>
       <c r="U90" s="10"/>
@@ -8295,7 +8475,9 @@
       <c r="Q91" s="14">
         <v>1.76</v>
       </c>
-      <c r="R91" s="14"/>
+      <c r="R91" s="31">
+        <v>1</v>
+      </c>
       <c r="S91" s="6"/>
       <c r="T91" s="6"/>
       <c r="U91" s="10"/>
@@ -8376,7 +8558,9 @@
       <c r="Q92" s="14">
         <v>0.63</v>
       </c>
-      <c r="R92" s="14"/>
+      <c r="R92" s="31">
+        <v>1</v>
+      </c>
       <c r="S92" s="6"/>
       <c r="T92" s="22"/>
       <c r="U92" s="10"/>
@@ -8457,7 +8641,9 @@
       <c r="Q93" s="14">
         <v>0.23</v>
       </c>
-      <c r="R93" s="14"/>
+      <c r="R93" s="31">
+        <v>0</v>
+      </c>
       <c r="S93" s="6"/>
       <c r="T93" s="6"/>
       <c r="U93" s="10"/>
@@ -8538,7 +8724,9 @@
       <c r="Q94" s="14">
         <v>1.23</v>
       </c>
-      <c r="R94" s="14"/>
+      <c r="R94" s="31">
+        <v>0</v>
+      </c>
       <c r="S94" s="6"/>
       <c r="T94" s="6"/>
       <c r="U94" s="10"/>
@@ -8619,7 +8807,9 @@
       <c r="Q95" s="14">
         <v>1.62</v>
       </c>
-      <c r="R95" s="14"/>
+      <c r="R95" s="31">
+        <v>1</v>
+      </c>
       <c r="S95" s="9"/>
       <c r="T95" s="6"/>
       <c r="U95" s="10"/>
@@ -8700,7 +8890,9 @@
       <c r="Q96" s="14">
         <v>1.62</v>
       </c>
-      <c r="R96" s="14"/>
+      <c r="R96" s="31">
+        <v>0</v>
+      </c>
       <c r="S96" s="9"/>
       <c r="T96" s="6"/>
       <c r="U96" s="10"/>
@@ -8781,7 +8973,9 @@
       <c r="Q97" s="14">
         <v>0.24</v>
       </c>
-      <c r="R97" s="14"/>
+      <c r="R97" s="31">
+        <v>0</v>
+      </c>
       <c r="S97" s="6"/>
       <c r="T97" s="22"/>
       <c r="U97" s="10"/>
@@ -8862,7 +9056,9 @@
       <c r="Q98" s="14">
         <v>0.42</v>
       </c>
-      <c r="R98" s="14"/>
+      <c r="R98" s="31">
+        <v>0</v>
+      </c>
       <c r="S98" s="6"/>
       <c r="T98" s="6"/>
       <c r="U98" s="10"/>
@@ -8943,7 +9139,9 @@
       <c r="Q99" s="14">
         <v>0.89</v>
       </c>
-      <c r="R99" s="14"/>
+      <c r="R99" s="31">
+        <v>0</v>
+      </c>
       <c r="S99" s="6"/>
       <c r="T99" s="22"/>
       <c r="U99" s="10"/>
@@ -9024,7 +9222,9 @@
       <c r="Q100" s="14">
         <v>0.32</v>
       </c>
-      <c r="R100" s="14"/>
+      <c r="R100" s="31">
+        <v>1</v>
+      </c>
       <c r="S100" s="9"/>
       <c r="T100" s="6"/>
       <c r="U100" s="10"/>
@@ -9105,7 +9305,9 @@
       <c r="Q101" s="14">
         <v>1.32</v>
       </c>
-      <c r="R101" s="14"/>
+      <c r="R101" s="31">
+        <v>0</v>
+      </c>
       <c r="S101" s="6"/>
       <c r="T101" s="6"/>
       <c r="U101" s="10"/>
@@ -9186,7 +9388,9 @@
       <c r="Q102" s="14">
         <v>1.1599999999999999</v>
       </c>
-      <c r="R102" s="14"/>
+      <c r="R102" s="31">
+        <v>1</v>
+      </c>
       <c r="S102" s="6"/>
       <c r="T102" s="6"/>
       <c r="U102" s="10"/>
@@ -9267,7 +9471,9 @@
       <c r="Q103" s="14">
         <v>0.68</v>
       </c>
-      <c r="R103" s="14"/>
+      <c r="R103" s="31">
+        <v>1</v>
+      </c>
       <c r="S103" s="9"/>
       <c r="T103" s="6"/>
       <c r="U103" s="10"/>
@@ -9348,7 +9554,9 @@
       <c r="Q104" s="14">
         <v>1.3</v>
       </c>
-      <c r="R104" s="14"/>
+      <c r="R104" s="31">
+        <v>1</v>
+      </c>
       <c r="S104" s="6"/>
       <c r="T104" s="6"/>
       <c r="U104" s="10"/>
@@ -9429,7 +9637,9 @@
       <c r="Q105" s="14">
         <v>0.9</v>
       </c>
-      <c r="R105" s="14"/>
+      <c r="R105" s="31">
+        <v>0</v>
+      </c>
       <c r="S105" s="9"/>
       <c r="T105" s="6"/>
       <c r="U105" s="10"/>
@@ -9510,7 +9720,9 @@
       <c r="Q106" s="14">
         <v>0.38</v>
       </c>
-      <c r="R106" s="14"/>
+      <c r="R106" s="31">
+        <v>0</v>
+      </c>
       <c r="S106" s="6"/>
       <c r="T106" s="22"/>
       <c r="U106" s="11"/>
@@ -9591,7 +9803,9 @@
       <c r="Q107" s="14">
         <v>0.33</v>
       </c>
-      <c r="R107" s="14"/>
+      <c r="R107" s="31">
+        <v>1</v>
+      </c>
       <c r="S107" s="6"/>
       <c r="T107" s="6"/>
       <c r="U107" s="10"/>
@@ -9672,7 +9886,9 @@
       <c r="Q108" s="14">
         <v>2.04</v>
       </c>
-      <c r="R108" s="14"/>
+      <c r="R108" s="31">
+        <v>1</v>
+      </c>
       <c r="S108" s="9"/>
       <c r="T108" s="6"/>
       <c r="U108" s="10"/>
@@ -9753,7 +9969,9 @@
       <c r="Q109" s="14">
         <v>1.26</v>
       </c>
-      <c r="R109" s="14"/>
+      <c r="R109" s="31">
+        <v>0</v>
+      </c>
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
       <c r="U109" s="10"/>
@@ -9834,7 +10052,9 @@
       <c r="Q110" s="14">
         <v>0</v>
       </c>
-      <c r="R110" s="14"/>
+      <c r="R110" s="31">
+        <v>0</v>
+      </c>
       <c r="S110" s="6"/>
       <c r="T110" s="6"/>
       <c r="U110" s="10"/>
@@ -9915,7 +10135,9 @@
       <c r="Q111" s="14">
         <v>0.96</v>
       </c>
-      <c r="R111" s="14"/>
+      <c r="R111" s="31">
+        <v>0</v>
+      </c>
       <c r="S111" s="6"/>
       <c r="T111" s="6"/>
       <c r="U111" s="10"/>
@@ -9996,7 +10218,9 @@
       <c r="Q112" s="14">
         <v>1.52</v>
       </c>
-      <c r="R112" s="14"/>
+      <c r="R112" s="31">
+        <v>0</v>
+      </c>
       <c r="S112" s="6"/>
       <c r="T112" s="6"/>
       <c r="U112" s="10"/>
@@ -10077,7 +10301,9 @@
       <c r="Q113" s="14">
         <v>2.19</v>
       </c>
-      <c r="R113" s="14"/>
+      <c r="R113" s="31">
+        <v>0</v>
+      </c>
       <c r="S113" s="6"/>
       <c r="T113" s="6"/>
       <c r="U113" s="10"/>
@@ -10158,7 +10384,9 @@
       <c r="Q114" s="14">
         <v>0.71</v>
       </c>
-      <c r="R114" s="14"/>
+      <c r="R114" s="31">
+        <v>0</v>
+      </c>
       <c r="S114" s="6"/>
       <c r="T114" s="6"/>
       <c r="U114" s="10"/>
@@ -10239,7 +10467,9 @@
       <c r="Q115" s="14">
         <v>1.52</v>
       </c>
-      <c r="R115" s="14"/>
+      <c r="R115" s="31">
+        <v>0</v>
+      </c>
       <c r="S115" s="6"/>
       <c r="T115" s="6"/>
       <c r="U115" s="10"/>
@@ -10314,8397 +10544,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24853A83-5D0E-3941-9D51-3B9E7416DD1F}">
-  <dimension ref="A1:Q121"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.83203125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="26" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="26" customWidth="1"/>
-    <col min="4" max="6" width="10.83203125" style="25"/>
-    <col min="7" max="7" width="10" style="29" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="26" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="26" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="26"/>
-    <col min="11" max="11" width="10.83203125" style="25"/>
-    <col min="12" max="12" width="11.1640625" style="26" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="26" customWidth="1"/>
-    <col min="14" max="15" width="10.83203125" style="25"/>
-    <col min="16" max="16" width="10" style="26" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" style="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7">
-        <v>35.43</v>
-      </c>
-      <c r="C2" s="8">
-        <v>53</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.12296472411758394</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0.10457392707790415</v>
-      </c>
-      <c r="F2" s="21">
-        <v>8.61</v>
-      </c>
-      <c r="G2" s="17">
-        <v>7.84</v>
-      </c>
-      <c r="H2" s="12">
-        <v>173.05</v>
-      </c>
-      <c r="I2" s="14">
-        <v>24515</v>
-      </c>
-      <c r="J2" s="11">
-        <v>1380</v>
-      </c>
-      <c r="K2" s="18">
-        <v>0</v>
-      </c>
-      <c r="L2" s="10">
-        <v>0</v>
-      </c>
-      <c r="M2" s="13">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="N2" s="18">
-        <v>1</v>
-      </c>
-      <c r="O2" s="20">
-        <v>18.75</v>
-      </c>
-      <c r="P2" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="14">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="7">
-        <v>32.67</v>
-      </c>
-      <c r="C3" s="8">
-        <v>35</v>
-      </c>
-      <c r="D3" s="6">
-        <v>3.1784931805355847E-2</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1.5241433837888301E-3</v>
-      </c>
-      <c r="F3" s="21">
-        <v>6.83</v>
-      </c>
-      <c r="G3" s="17">
-        <v>13.95</v>
-      </c>
-      <c r="H3" s="12">
-        <v>1.016</v>
-      </c>
-      <c r="I3" s="14">
-        <v>21905</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-      <c r="K3" s="18">
-        <v>0</v>
-      </c>
-      <c r="L3" s="10">
-        <v>0</v>
-      </c>
-      <c r="M3" s="13">
-        <v>6</v>
-      </c>
-      <c r="N3" s="18">
-        <v>0</v>
-      </c>
-      <c r="O3" s="20">
-        <v>15.90909091</v>
-      </c>
-      <c r="P3" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="7">
-        <v>33.07</v>
-      </c>
-      <c r="C4" s="8">
-        <v>22</v>
-      </c>
-      <c r="D4" s="6">
-        <v>4.1450344302958866E-2</v>
-      </c>
-      <c r="E4" s="6">
-        <v>3.9654944824648666E-2</v>
-      </c>
-      <c r="F4" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G4" s="17">
-        <v>11.67</v>
-      </c>
-      <c r="H4" s="12">
-        <v>30.741</v>
-      </c>
-      <c r="I4" s="14">
-        <v>16531</v>
-      </c>
-      <c r="J4" s="11">
-        <v>1133621</v>
-      </c>
-      <c r="K4" s="18">
-        <v>0</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0</v>
-      </c>
-      <c r="M4" s="13">
-        <v>8.9</v>
-      </c>
-      <c r="N4" s="18">
-        <v>0</v>
-      </c>
-      <c r="O4" s="20">
-        <v>8.0459770109999997</v>
-      </c>
-      <c r="P4" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="14">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="7">
-        <v>44.26</v>
-      </c>
-      <c r="C5" s="8">
-        <v>35</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.18481066760781217</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.16917311138902538</v>
-      </c>
-      <c r="F5" s="21">
-        <v>4.83</v>
-      </c>
-      <c r="G5" s="17">
-        <v>9.27</v>
-      </c>
-      <c r="H5" s="12">
-        <v>57.656999999999996</v>
-      </c>
-      <c r="I5" s="14">
-        <v>24279</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-      <c r="K5" s="18">
-        <v>0</v>
-      </c>
-      <c r="L5" s="10">
-        <v>1</v>
-      </c>
-      <c r="M5" s="13">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="N5" s="18">
-        <v>1</v>
-      </c>
-      <c r="O5" s="20">
-        <v>16.037735850000001</v>
-      </c>
-      <c r="P5" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="14">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="7">
-        <v>56.88</v>
-      </c>
-      <c r="C6" s="8">
-        <v>39</v>
-      </c>
-      <c r="D6" s="6">
-        <v>9.9356252281092183E-2</v>
-      </c>
-      <c r="E6" s="6">
-        <v>6.293895669663695E-3</v>
-      </c>
-      <c r="F6" s="21">
-        <v>6.83</v>
-      </c>
-      <c r="G6" s="17">
-        <v>27.31</v>
-      </c>
-      <c r="H6" s="12">
-        <v>2.157</v>
-      </c>
-      <c r="I6" s="14">
-        <v>21942</v>
-      </c>
-      <c r="J6" s="11">
-        <v>2972</v>
-      </c>
-      <c r="K6" s="18">
-        <v>0</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0</v>
-      </c>
-      <c r="M6" s="13">
-        <v>11</v>
-      </c>
-      <c r="N6" s="18">
-        <v>0</v>
-      </c>
-      <c r="O6" s="20">
-        <v>15.454545449999999</v>
-      </c>
-      <c r="P6" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="14">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="7">
-        <v>60.18</v>
-      </c>
-      <c r="C7" s="8">
-        <v>54</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.72032118371429232</v>
-      </c>
-      <c r="E7" s="6">
-        <v>5.6563410488555999</v>
-      </c>
-      <c r="F7" s="21">
-        <v>4.84</v>
-      </c>
-      <c r="G7" s="17">
-        <v>10.98</v>
-      </c>
-      <c r="H7" s="12">
-        <v>345.82100000000003</v>
-      </c>
-      <c r="I7" s="14">
-        <v>32986</v>
-      </c>
-      <c r="J7" s="11">
-        <v>5469453</v>
-      </c>
-      <c r="K7" s="18">
-        <v>0</v>
-      </c>
-      <c r="L7" s="10">
-        <v>1</v>
-      </c>
-      <c r="M7" s="13">
-        <v>5.4</v>
-      </c>
-      <c r="N7" s="18">
-        <v>1</v>
-      </c>
-      <c r="O7" s="20">
-        <v>23.849372379999998</v>
-      </c>
-      <c r="P7" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>2.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="7">
-        <v>52.21</v>
-      </c>
-      <c r="C8" s="8">
-        <v>37</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.30504193540810159</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1.1176529824900421</v>
-      </c>
-      <c r="F8" s="21">
-        <v>4.83</v>
-      </c>
-      <c r="G8" s="17">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="H8" s="12">
-        <v>175.92099999999999</v>
-      </c>
-      <c r="I8" s="14">
-        <v>26232</v>
-      </c>
-      <c r="J8" s="11">
-        <v>10341</v>
-      </c>
-      <c r="K8" s="18">
-        <v>0</v>
-      </c>
-      <c r="L8" s="10">
-        <v>1</v>
-      </c>
-      <c r="M8" s="13">
-        <v>6.8</v>
-      </c>
-      <c r="N8" s="18">
-        <v>0</v>
-      </c>
-      <c r="O8" s="20">
-        <v>17.30769231</v>
-      </c>
-      <c r="P8" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="7">
-        <v>47.77</v>
-      </c>
-      <c r="C9" s="8">
-        <v>35</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.17768043175797896</v>
-      </c>
-      <c r="E9" s="6">
-        <v>3.7355121325895878E-2</v>
-      </c>
-      <c r="F9" s="21">
-        <v>4.09</v>
-      </c>
-      <c r="G9" s="17">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="H9" s="12">
-        <v>96.067999999999998</v>
-      </c>
-      <c r="I9" s="14">
-        <v>25090</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0</v>
-      </c>
-      <c r="K9" s="18">
-        <v>0</v>
-      </c>
-      <c r="L9" s="10">
-        <v>1</v>
-      </c>
-      <c r="M9" s="13">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="N9" s="18">
-        <v>0</v>
-      </c>
-      <c r="O9" s="20">
-        <v>13.66906475</v>
-      </c>
-      <c r="P9" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7">
-        <v>47.17</v>
-      </c>
-      <c r="C10" s="8">
-        <v>19</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.12401713159429228</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2.007242402757611E-2</v>
-      </c>
-      <c r="F10" s="21">
-        <v>10.4</v>
-      </c>
-      <c r="G10" s="17">
-        <v>29.17</v>
-      </c>
-      <c r="H10" s="12">
-        <v>6.2779999999999996</v>
-      </c>
-      <c r="I10" s="14">
-        <v>18339</v>
-      </c>
-      <c r="J10" s="11">
-        <v>1400481</v>
-      </c>
-      <c r="K10" s="18">
-        <v>0</v>
-      </c>
-      <c r="L10" s="10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="13">
-        <v>11.9</v>
-      </c>
-      <c r="N10" s="18">
-        <v>0</v>
-      </c>
-      <c r="O10" s="20">
-        <v>19.791666670000001</v>
-      </c>
-      <c r="P10" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="7">
-        <v>36.29</v>
-      </c>
-      <c r="C11" s="8">
-        <v>23</v>
-      </c>
-      <c r="D11" s="6">
-        <v>4.2016327642371544E-2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1.6874444606233475E-2</v>
-      </c>
-      <c r="F11" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G11" s="17">
-        <v>17.7</v>
-      </c>
-      <c r="H11" s="12">
-        <v>7.5739999999999998</v>
-      </c>
-      <c r="I11" s="14">
-        <v>17730</v>
-      </c>
-      <c r="J11" s="11">
-        <v>1126389</v>
-      </c>
-      <c r="K11" s="18">
-        <v>0</v>
-      </c>
-      <c r="L11" s="10">
-        <v>0</v>
-      </c>
-      <c r="M11" s="13">
-        <v>6.6</v>
-      </c>
-      <c r="N11" s="18">
-        <v>0</v>
-      </c>
-      <c r="O11" s="20">
-        <v>14.606741570000001</v>
-      </c>
-      <c r="P11" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="7">
-        <v>60.81</v>
-      </c>
-      <c r="C12" s="8">
-        <v>48</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.66901786506417993</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0.17686867463485201</v>
-      </c>
-      <c r="F12" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G12" s="17">
-        <v>9.58</v>
-      </c>
-      <c r="H12" s="12">
-        <v>325.70800000000003</v>
-      </c>
-      <c r="I12" s="14">
-        <v>24233</v>
-      </c>
-      <c r="J12" s="11">
-        <v>8255</v>
-      </c>
-      <c r="K12" s="18">
-        <v>0</v>
-      </c>
-      <c r="L12" s="10">
-        <v>0</v>
-      </c>
-      <c r="M12" s="13">
-        <v>6.7</v>
-      </c>
-      <c r="N12" s="18">
-        <v>1</v>
-      </c>
-      <c r="O12" s="20">
-        <v>28.180737220000001</v>
-      </c>
-      <c r="P12" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="7">
-        <v>43.34</v>
-      </c>
-      <c r="C13" s="8">
-        <v>31</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.13726023484408947</v>
-      </c>
-      <c r="E13" s="6">
-        <v>4.0995374496998666E-2</v>
-      </c>
-      <c r="F13" s="21">
-        <v>8.61</v>
-      </c>
-      <c r="G13" s="17">
-        <v>11.96</v>
-      </c>
-      <c r="H13" s="12">
-        <v>54.898000000000003</v>
-      </c>
-      <c r="I13" s="14">
-        <v>24536</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="18">
-        <v>0</v>
-      </c>
-      <c r="L13" s="10">
-        <v>0</v>
-      </c>
-      <c r="M13" s="13">
-        <v>10.4</v>
-      </c>
-      <c r="N13" s="18">
-        <v>0</v>
-      </c>
-      <c r="O13" s="20">
-        <v>11.64021164</v>
-      </c>
-      <c r="P13" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="7">
-        <v>48.23</v>
-      </c>
-      <c r="C14" s="8">
-        <v>25</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.21377598831223382</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0.3774296138337786</v>
-      </c>
-      <c r="F14" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G14" s="17">
-        <v>13.46</v>
-      </c>
-      <c r="H14" s="12">
-        <v>88.364000000000004</v>
-      </c>
-      <c r="I14" s="14">
-        <v>25938</v>
-      </c>
-      <c r="J14" s="11">
-        <v>1133621</v>
-      </c>
-      <c r="K14" s="18">
-        <v>0</v>
-      </c>
-      <c r="L14" s="10">
-        <v>0</v>
-      </c>
-      <c r="M14" s="13">
-        <v>8.9</v>
-      </c>
-      <c r="N14" s="18">
-        <v>0</v>
-      </c>
-      <c r="O14" s="20">
-        <v>20.331950209999999</v>
-      </c>
-      <c r="P14" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="7">
-        <v>63.2</v>
-      </c>
-      <c r="C15" s="8">
-        <v>61</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1.3434593592592068</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1.7954477103147766</v>
-      </c>
-      <c r="F15" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G15" s="17">
-        <v>13.61</v>
-      </c>
-      <c r="H15" s="12">
-        <v>232.208</v>
-      </c>
-      <c r="I15" s="14">
-        <v>27457</v>
-      </c>
-      <c r="J15" s="11">
-        <v>1126389</v>
-      </c>
-      <c r="K15" s="18">
-        <v>0</v>
-      </c>
-      <c r="L15" s="10">
-        <v>0</v>
-      </c>
-      <c r="M15" s="13">
-        <v>6.6</v>
-      </c>
-      <c r="N15" s="18">
-        <v>1</v>
-      </c>
-      <c r="O15" s="20">
-        <v>20.270270270000001</v>
-      </c>
-      <c r="P15" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="7">
-        <v>58.56</v>
-      </c>
-      <c r="C16" s="8">
-        <v>29</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.16959589770658687</v>
-      </c>
-      <c r="E16" s="6">
-        <v>2.1460483180669506E-2</v>
-      </c>
-      <c r="F16" s="21">
-        <v>6.83</v>
-      </c>
-      <c r="G16" s="17">
-        <v>16.079999999999998</v>
-      </c>
-      <c r="H16" s="12">
-        <v>12.813000000000001</v>
-      </c>
-      <c r="I16" s="14">
-        <v>24295</v>
-      </c>
-      <c r="J16" s="11">
-        <v>2972</v>
-      </c>
-      <c r="K16" s="18">
-        <v>0</v>
-      </c>
-      <c r="L16" s="10">
-        <v>0</v>
-      </c>
-      <c r="M16" s="13">
-        <v>11</v>
-      </c>
-      <c r="N16" s="18">
-        <v>0</v>
-      </c>
-      <c r="O16" s="20">
-        <v>23.287671230000001</v>
-      </c>
-      <c r="P16" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="14">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="7">
-        <v>53.09</v>
-      </c>
-      <c r="C17" s="8">
-        <v>45</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.27785206280480912</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0.12192466649157162</v>
-      </c>
-      <c r="F17" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G17" s="17">
-        <v>10.69</v>
-      </c>
-      <c r="H17" s="12">
-        <v>212.87899999999999</v>
-      </c>
-      <c r="I17" s="14">
-        <v>22610</v>
-      </c>
-      <c r="J17" s="11">
-        <v>1133621</v>
-      </c>
-      <c r="K17" s="18">
-        <v>0</v>
-      </c>
-      <c r="L17" s="10">
-        <v>1</v>
-      </c>
-      <c r="M17" s="13">
-        <v>8.9</v>
-      </c>
-      <c r="N17" s="18">
-        <v>0</v>
-      </c>
-      <c r="O17" s="20">
-        <v>25.441696109999999</v>
-      </c>
-      <c r="P17" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="7">
-        <v>53.39</v>
-      </c>
-      <c r="C18" s="8">
-        <v>35</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0.30268030499914655</v>
-      </c>
-      <c r="E18" s="6">
-        <v>2.1768577878963971</v>
-      </c>
-      <c r="F18" s="21">
-        <v>4.83</v>
-      </c>
-      <c r="G18" s="17">
-        <v>12.26</v>
-      </c>
-      <c r="H18" s="12">
-        <v>124.77200000000001</v>
-      </c>
-      <c r="I18" s="14">
-        <v>26273</v>
-      </c>
-      <c r="J18" s="11">
-        <v>55946</v>
-      </c>
-      <c r="K18" s="18">
-        <v>0</v>
-      </c>
-      <c r="L18" s="10">
-        <v>0</v>
-      </c>
-      <c r="M18" s="13">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="N18" s="18">
-        <v>0</v>
-      </c>
-      <c r="O18" s="20">
-        <v>27.127659569999999</v>
-      </c>
-      <c r="P18" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="14">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="7">
-        <v>43.25</v>
-      </c>
-      <c r="C19" s="8">
-        <v>57</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0.12799591614783282</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0.44308345093278939</v>
-      </c>
-      <c r="F19" s="21">
-        <v>5.82</v>
-      </c>
-      <c r="G19" s="17">
-        <v>8.84</v>
-      </c>
-      <c r="H19" s="12">
-        <v>137.85599999999999</v>
-      </c>
-      <c r="I19" s="14">
-        <v>26053</v>
-      </c>
-      <c r="J19" s="11">
-        <v>45500</v>
-      </c>
-      <c r="K19" s="18">
-        <v>0</v>
-      </c>
-      <c r="L19" s="10">
-        <v>1</v>
-      </c>
-      <c r="M19" s="13">
-        <v>6.6</v>
-      </c>
-      <c r="N19" s="18">
-        <v>0</v>
-      </c>
-      <c r="O19" s="20">
-        <v>21.212121209999999</v>
-      </c>
-      <c r="P19" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="7">
-        <v>54.45</v>
-      </c>
-      <c r="C20" s="8">
-        <v>35</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0.21699421987144335</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1.2709586725799802</v>
-      </c>
-      <c r="F20" s="21">
-        <v>6.29</v>
-      </c>
-      <c r="G20" s="17">
-        <v>8.4</v>
-      </c>
-      <c r="H20" s="12">
-        <v>151.113</v>
-      </c>
-      <c r="I20" s="14">
-        <v>26061</v>
-      </c>
-      <c r="J20" s="11">
-        <v>21381</v>
-      </c>
-      <c r="K20" s="18">
-        <v>0</v>
-      </c>
-      <c r="L20" s="10">
-        <v>1</v>
-      </c>
-      <c r="M20" s="13">
-        <v>5.9</v>
-      </c>
-      <c r="N20" s="18">
-        <v>1</v>
-      </c>
-      <c r="O20" s="20">
-        <v>23.728813559999999</v>
-      </c>
-      <c r="P20" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="14">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="7">
-        <v>48.25</v>
-      </c>
-      <c r="C21" s="8">
-        <v>29</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0.11743845124929095</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0.20224157944801519</v>
-      </c>
-      <c r="F21" s="21">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="G21" s="17">
-        <v>8.82</v>
-      </c>
-      <c r="H21" s="12">
-        <v>98.025000000000006</v>
-      </c>
-      <c r="I21" s="14">
-        <v>23582</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="18">
-        <v>0</v>
-      </c>
-      <c r="L21" s="10">
-        <v>1</v>
-      </c>
-      <c r="M21" s="13">
-        <v>6.3</v>
-      </c>
-      <c r="N21" s="18">
-        <v>0</v>
-      </c>
-      <c r="O21" s="20">
-        <v>18.666666670000001</v>
-      </c>
-      <c r="P21" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="14">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="7">
-        <v>62.78</v>
-      </c>
-      <c r="C22" s="8">
-        <v>74</v>
-      </c>
-      <c r="D22" s="6">
-        <v>7.9690680912419225</v>
-      </c>
-      <c r="E22" s="6">
-        <v>3.6293664326471511</v>
-      </c>
-      <c r="F22" s="21">
-        <v>5.4</v>
-      </c>
-      <c r="G22" s="17">
-        <v>7.52</v>
-      </c>
-      <c r="H22" s="12">
-        <v>3223.3339999999998</v>
-      </c>
-      <c r="I22" s="14">
-        <v>36442</v>
-      </c>
-      <c r="J22" s="11">
-        <v>57891340</v>
-      </c>
-      <c r="K22" s="18">
-        <v>0</v>
-      </c>
-      <c r="L22" s="10">
-        <v>0</v>
-      </c>
-      <c r="M22" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="N22" s="18">
-        <v>1</v>
-      </c>
-      <c r="O22" s="20">
-        <v>10.90955544</v>
-      </c>
-      <c r="P22" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="14">
-        <v>3.26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="7">
-        <v>52.38</v>
-      </c>
-      <c r="C23" s="8">
-        <v>32</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0.14876663903420306</v>
-      </c>
-      <c r="E23" s="6">
-        <v>4.6656478493928601E-2</v>
-      </c>
-      <c r="F23" s="21">
-        <v>4.09</v>
-      </c>
-      <c r="G23" s="17">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="H23" s="12">
-        <v>59.351999999999997</v>
-      </c>
-      <c r="I23" s="14">
-        <v>23068</v>
-      </c>
-      <c r="J23" s="11">
-        <v>52071</v>
-      </c>
-      <c r="K23" s="18">
-        <v>0</v>
-      </c>
-      <c r="L23" s="10">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13">
-        <v>8.6</v>
-      </c>
-      <c r="N23" s="18">
-        <v>1</v>
-      </c>
-      <c r="O23" s="20">
-        <v>36.764705880000001</v>
-      </c>
-      <c r="P23" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="14">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="7">
-        <v>60.17</v>
-      </c>
-      <c r="C24" s="8">
-        <v>35</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0.15372651633923823</v>
-      </c>
-      <c r="E24" s="6">
-        <v>5.989747414059407E-2</v>
-      </c>
-      <c r="F24" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G24" s="17">
-        <v>20.45</v>
-      </c>
-      <c r="H24" s="12">
-        <v>7.8259999999999996</v>
-      </c>
-      <c r="I24" s="14">
-        <v>22946</v>
-      </c>
-      <c r="J24" s="11">
-        <v>1126389</v>
-      </c>
-      <c r="K24" s="18">
-        <v>0</v>
-      </c>
-      <c r="L24" s="10">
-        <v>0</v>
-      </c>
-      <c r="M24" s="13">
-        <v>6.6</v>
-      </c>
-      <c r="N24" s="18">
-        <v>0</v>
-      </c>
-      <c r="O24" s="20">
-        <v>19.444444440000002</v>
-      </c>
-      <c r="P24" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="14">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="7">
-        <v>45.78</v>
-      </c>
-      <c r="C25" s="8">
-        <v>46</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0.3123444808252141</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0.34502115429366159</v>
-      </c>
-      <c r="F25" s="21">
-        <v>12.1</v>
-      </c>
-      <c r="G25" s="17">
-        <v>7.89</v>
-      </c>
-      <c r="H25" s="12">
-        <v>447.18200000000002</v>
-      </c>
-      <c r="I25" s="14">
-        <v>25049</v>
-      </c>
-      <c r="J25" s="11">
-        <v>1273424</v>
-      </c>
-      <c r="K25" s="18">
-        <v>0</v>
-      </c>
-      <c r="L25" s="10">
-        <v>0</v>
-      </c>
-      <c r="M25" s="13">
-        <v>10.6</v>
-      </c>
-      <c r="N25" s="18">
-        <v>0</v>
-      </c>
-      <c r="O25" s="20">
-        <v>27.826086960000001</v>
-      </c>
-      <c r="P25" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="14">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="7">
-        <v>47</v>
-      </c>
-      <c r="C26" s="8">
-        <v>41</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0.11696521827504057</v>
-      </c>
-      <c r="E26" s="6">
-        <v>4.8922280935007542E-3</v>
-      </c>
-      <c r="F26" s="21">
-        <v>5.82</v>
-      </c>
-      <c r="G26" s="17">
-        <v>38.950000000000003</v>
-      </c>
-      <c r="H26" s="12">
-        <v>1.79</v>
-      </c>
-      <c r="I26" s="14">
-        <v>24593</v>
-      </c>
-      <c r="J26" s="11">
-        <v>45500</v>
-      </c>
-      <c r="K26" s="18">
-        <v>0</v>
-      </c>
-      <c r="L26" s="10">
-        <v>0</v>
-      </c>
-      <c r="M26" s="13">
-        <v>6.6</v>
-      </c>
-      <c r="N26" s="18">
-        <v>0</v>
-      </c>
-      <c r="O26" s="20">
-        <v>8</v>
-      </c>
-      <c r="P26" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="14">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="7">
-        <v>44.09</v>
-      </c>
-      <c r="C27" s="8">
-        <v>40</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0.3818483066870878</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0.80228458206491482</v>
-      </c>
-      <c r="F27" s="21">
-        <v>10.4</v>
-      </c>
-      <c r="G27" s="17">
-        <v>10.08</v>
-      </c>
-      <c r="H27" s="12">
-        <v>220.02</v>
-      </c>
-      <c r="I27" s="14">
-        <v>28149</v>
-      </c>
-      <c r="J27" s="11">
-        <v>1400481</v>
-      </c>
-      <c r="K27" s="18">
-        <v>0</v>
-      </c>
-      <c r="L27" s="10">
-        <v>0</v>
-      </c>
-      <c r="M27" s="13">
-        <v>11.9</v>
-      </c>
-      <c r="N27" s="18">
-        <v>0</v>
-      </c>
-      <c r="O27" s="20">
-        <v>29.464285709999999</v>
-      </c>
-      <c r="P27" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="14">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="7">
-        <v>52.88</v>
-      </c>
-      <c r="C28" s="8">
-        <v>41</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0.2688985608878075</v>
-      </c>
-      <c r="E28" s="6">
-        <v>5.763772744778108</v>
-      </c>
-      <c r="F28" s="21">
-        <v>5.94</v>
-      </c>
-      <c r="G28" s="17">
-        <v>7.13</v>
-      </c>
-      <c r="H28" s="12">
-        <v>199.066</v>
-      </c>
-      <c r="I28" s="14">
-        <v>25049</v>
-      </c>
-      <c r="J28" s="11">
-        <v>205503</v>
-      </c>
-      <c r="K28" s="18">
-        <v>0</v>
-      </c>
-      <c r="L28" s="10">
-        <v>1</v>
-      </c>
-      <c r="M28" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="N28" s="18">
-        <v>0</v>
-      </c>
-      <c r="O28" s="20">
-        <v>17.543859650000002</v>
-      </c>
-      <c r="P28" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="14">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="7">
-        <v>39.26</v>
-      </c>
-      <c r="C29" s="8">
-        <v>10</v>
-      </c>
-      <c r="D29" s="6">
-        <v>4.674371069873319E-2</v>
-      </c>
-      <c r="E29" s="6">
-        <v>4.6214204744168458E-2</v>
-      </c>
-      <c r="F29" s="21">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="G29" s="17">
-        <v>13.17</v>
-      </c>
-      <c r="H29" s="12">
-        <v>9.9</v>
-      </c>
-      <c r="I29" s="14">
-        <v>20967</v>
-      </c>
-      <c r="J29" s="11">
-        <v>0</v>
-      </c>
-      <c r="K29" s="18">
-        <v>0</v>
-      </c>
-      <c r="L29" s="10">
-        <v>0</v>
-      </c>
-      <c r="M29" s="13">
-        <v>6.3</v>
-      </c>
-      <c r="N29" s="18">
-        <v>0</v>
-      </c>
-      <c r="O29" s="20">
-        <v>25</v>
-      </c>
-      <c r="P29" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="14">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="7">
-        <v>57.65</v>
-      </c>
-      <c r="C30" s="8">
-        <v>38</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0.16103400844249277</v>
-      </c>
-      <c r="E30" s="6">
-        <v>5.8148791776157768E-2</v>
-      </c>
-      <c r="F30" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G30" s="17">
-        <v>15.49</v>
-      </c>
-      <c r="H30" s="12">
-        <v>33.978000000000002</v>
-      </c>
-      <c r="I30" s="14">
-        <v>21281</v>
-      </c>
-      <c r="J30" s="11">
-        <v>19021704</v>
-      </c>
-      <c r="K30" s="18">
-        <v>0</v>
-      </c>
-      <c r="L30" s="10">
-        <v>0</v>
-      </c>
-      <c r="M30" s="13">
-        <v>7.6</v>
-      </c>
-      <c r="N30" s="18">
-        <v>0</v>
-      </c>
-      <c r="O30" s="20">
-        <v>18.446601940000001</v>
-      </c>
-      <c r="P30" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="14">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="7">
-        <v>52.07</v>
-      </c>
-      <c r="C31" s="8">
-        <v>41</v>
-      </c>
-      <c r="D31" s="6">
-        <v>0.45475627706234084</v>
-      </c>
-      <c r="E31" s="6">
-        <v>2.4927637210327704</v>
-      </c>
-      <c r="F31" s="21">
-        <v>4.83</v>
-      </c>
-      <c r="G31" s="17">
-        <v>11.96</v>
-      </c>
-      <c r="H31" s="12">
-        <v>143.97800000000001</v>
-      </c>
-      <c r="I31" s="14">
-        <v>24632</v>
-      </c>
-      <c r="J31" s="11">
-        <v>14649</v>
-      </c>
-      <c r="K31" s="18">
-        <v>0</v>
-      </c>
-      <c r="L31" s="10">
-        <v>0</v>
-      </c>
-      <c r="M31" s="13">
-        <v>5.8</v>
-      </c>
-      <c r="N31" s="18">
-        <v>1</v>
-      </c>
-      <c r="O31" s="20">
-        <v>25.89641434</v>
-      </c>
-      <c r="P31" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="14">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="7">
-        <v>48.34</v>
-      </c>
-      <c r="C32" s="8">
-        <v>45</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0.10016091322685586</v>
-      </c>
-      <c r="E32" s="6">
-        <v>6.1442030158987207E-3</v>
-      </c>
-      <c r="F32" s="21">
-        <v>6.83</v>
-      </c>
-      <c r="G32" s="17">
-        <v>37.380000000000003</v>
-      </c>
-      <c r="H32" s="12">
-        <v>1.4630000000000001</v>
-      </c>
-      <c r="I32" s="14">
-        <v>25626</v>
-      </c>
-      <c r="J32" s="11">
-        <v>2972</v>
-      </c>
-      <c r="K32" s="18">
-        <v>0</v>
-      </c>
-      <c r="L32" s="10">
-        <v>0</v>
-      </c>
-      <c r="M32" s="13">
-        <v>11</v>
-      </c>
-      <c r="N32" s="18">
-        <v>0</v>
-      </c>
-      <c r="O32" s="20">
-        <v>15</v>
-      </c>
-      <c r="P32" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="7">
-        <v>52.91</v>
-      </c>
-      <c r="C33" s="8">
-        <v>38</v>
-      </c>
-      <c r="D33" s="6">
-        <v>0.59563089058084429</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0.29816054945368986</v>
-      </c>
-      <c r="F33" s="21">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="G33" s="17">
-        <v>11.81</v>
-      </c>
-      <c r="H33" s="12">
-        <v>96.405000000000001</v>
-      </c>
-      <c r="I33" s="14">
-        <v>27181</v>
-      </c>
-      <c r="J33" s="11">
-        <v>3950513</v>
-      </c>
-      <c r="K33" s="18">
-        <v>0</v>
-      </c>
-      <c r="L33" s="10">
-        <v>1</v>
-      </c>
-      <c r="M33" s="13">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="N33" s="18">
-        <v>1</v>
-      </c>
-      <c r="O33" s="20">
-        <v>14.51187335</v>
-      </c>
-      <c r="P33" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="14">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="7">
-        <v>56.56</v>
-      </c>
-      <c r="C34" s="8">
-        <v>13</v>
-      </c>
-      <c r="D34" s="6">
-        <v>8.1763363017105239E-2</v>
-      </c>
-      <c r="E34" s="6">
-        <v>9.9953867445794251E-2</v>
-      </c>
-      <c r="F34" s="21">
-        <v>7.68</v>
-      </c>
-      <c r="G34" s="17">
-        <v>35.11</v>
-      </c>
-      <c r="H34" s="12">
-        <v>4.1719999999999997</v>
-      </c>
-      <c r="I34" s="14">
-        <v>22320</v>
-      </c>
-      <c r="J34" s="11">
-        <v>1103353</v>
-      </c>
-      <c r="K34" s="18">
-        <v>0</v>
-      </c>
-      <c r="L34" s="10">
-        <v>0</v>
-      </c>
-      <c r="M34" s="13">
-        <v>8.6</v>
-      </c>
-      <c r="N34" s="18">
-        <v>0</v>
-      </c>
-      <c r="O34" s="20">
-        <v>12.5</v>
-      </c>
-      <c r="P34" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="14">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="7">
-        <v>58.48</v>
-      </c>
-      <c r="C35" s="8">
-        <v>38</v>
-      </c>
-      <c r="D35" s="6">
-        <v>0.19306957234570943</v>
-      </c>
-      <c r="E35" s="6">
-        <v>0.21495184659496847</v>
-      </c>
-      <c r="F35" s="21">
-        <v>4.83</v>
-      </c>
-      <c r="G35" s="17">
-        <v>11.12</v>
-      </c>
-      <c r="H35" s="12">
-        <v>51.683</v>
-      </c>
-      <c r="I35" s="14">
-        <v>24426</v>
-      </c>
-      <c r="J35" s="11">
-        <v>0</v>
-      </c>
-      <c r="K35" s="18">
-        <v>0</v>
-      </c>
-      <c r="L35" s="10">
-        <v>0</v>
-      </c>
-      <c r="M35" s="13">
-        <v>5.8</v>
-      </c>
-      <c r="N35" s="18">
-        <v>0</v>
-      </c>
-      <c r="O35" s="20">
-        <v>12.34567901</v>
-      </c>
-      <c r="P35" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="14">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="7">
-        <v>65.349999999999994</v>
-      </c>
-      <c r="C36" s="8">
-        <v>70</v>
-      </c>
-      <c r="D36" s="6">
-        <v>2.1544475288223408</v>
-      </c>
-      <c r="E36" s="6">
-        <v>3.328218834329697</v>
-      </c>
-      <c r="F36" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G36" s="17">
-        <v>10.15</v>
-      </c>
-      <c r="H36" s="12">
-        <v>688.71100000000001</v>
-      </c>
-      <c r="I36" s="14">
-        <v>27344</v>
-      </c>
-      <c r="J36" s="11">
-        <v>6380465</v>
-      </c>
-      <c r="K36" s="18">
-        <v>0</v>
-      </c>
-      <c r="L36" s="10">
-        <v>0</v>
-      </c>
-      <c r="M36" s="13">
-        <v>6.3</v>
-      </c>
-      <c r="N36" s="18">
-        <v>0</v>
-      </c>
-      <c r="O36" s="20">
-        <v>18.98947368</v>
-      </c>
-      <c r="P36" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="14">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="7">
-        <v>44.95</v>
-      </c>
-      <c r="C37" s="8">
-        <v>32</v>
-      </c>
-      <c r="D37" s="6">
-        <v>8.454175173352288E-2</v>
-      </c>
-      <c r="E37" s="6">
-        <v>9.7912603985362792E-2</v>
-      </c>
-      <c r="F37" s="21">
-        <v>4.83</v>
-      </c>
-      <c r="G37" s="17">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="H37" s="12">
-        <v>39.112000000000002</v>
-      </c>
-      <c r="I37" s="14">
-        <v>24806</v>
-      </c>
-      <c r="J37" s="11">
-        <v>0</v>
-      </c>
-      <c r="K37" s="18">
-        <v>0</v>
-      </c>
-      <c r="L37" s="10">
-        <v>0</v>
-      </c>
-      <c r="M37" s="13">
-        <v>7.2</v>
-      </c>
-      <c r="N37" s="18">
-        <v>0</v>
-      </c>
-      <c r="O37" s="20">
-        <v>18.18181818</v>
-      </c>
-      <c r="P37" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="14">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="7">
-        <v>49.65</v>
-      </c>
-      <c r="C38" s="8">
-        <v>48</v>
-      </c>
-      <c r="D38" s="6">
-        <v>0.16004261009486895</v>
-      </c>
-      <c r="E38" s="6">
-        <v>1.4288708138789585</v>
-      </c>
-      <c r="F38" s="21">
-        <v>5.82</v>
-      </c>
-      <c r="G38" s="17">
-        <v>11.41</v>
-      </c>
-      <c r="H38" s="12">
-        <v>132.29900000000001</v>
-      </c>
-      <c r="I38" s="14">
-        <v>29325</v>
-      </c>
-      <c r="J38" s="11">
-        <v>1037576</v>
-      </c>
-      <c r="K38" s="18">
-        <v>0</v>
-      </c>
-      <c r="L38" s="10">
-        <v>0</v>
-      </c>
-      <c r="M38" s="13">
-        <v>7.1</v>
-      </c>
-      <c r="N38" s="18">
-        <v>1</v>
-      </c>
-      <c r="O38" s="20">
-        <v>11.49425287</v>
-      </c>
-      <c r="P38" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="14">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" s="7">
-        <v>51.48</v>
-      </c>
-      <c r="C39" s="8">
-        <v>38</v>
-      </c>
-      <c r="D39" s="6">
-        <v>0.14284009681225404</v>
-      </c>
-      <c r="E39" s="6">
-        <v>5.5127721854719203E-2</v>
-      </c>
-      <c r="F39" s="21">
-        <v>6.83</v>
-      </c>
-      <c r="G39" s="17">
-        <v>10.81</v>
-      </c>
-      <c r="H39" s="12">
-        <v>35.691000000000003</v>
-      </c>
-      <c r="I39" s="14">
-        <v>25126</v>
-      </c>
-      <c r="J39" s="11">
-        <v>0</v>
-      </c>
-      <c r="K39" s="18">
-        <v>0</v>
-      </c>
-      <c r="L39" s="10">
-        <v>0</v>
-      </c>
-      <c r="M39" s="13">
-        <v>6</v>
-      </c>
-      <c r="N39" s="18">
-        <v>0</v>
-      </c>
-      <c r="O39" s="20">
-        <v>27.5</v>
-      </c>
-      <c r="P39" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="14">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="7">
-        <v>57.07</v>
-      </c>
-      <c r="C40" s="8">
-        <v>45</v>
-      </c>
-      <c r="D40" s="6">
-        <v>0.37850311018356719</v>
-      </c>
-      <c r="E40" s="6">
-        <v>0.24708133346215974</v>
-      </c>
-      <c r="F40" s="21">
-        <v>8.61</v>
-      </c>
-      <c r="G40" s="17">
-        <v>10.08</v>
-      </c>
-      <c r="H40" s="12">
-        <v>84.281999999999996</v>
-      </c>
-      <c r="I40" s="14">
-        <v>26570</v>
-      </c>
-      <c r="J40" s="11">
-        <v>0</v>
-      </c>
-      <c r="K40" s="18">
-        <v>0</v>
-      </c>
-      <c r="L40" s="10">
-        <v>0</v>
-      </c>
-      <c r="M40" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="N40" s="18">
-        <v>0</v>
-      </c>
-      <c r="O40" s="20">
-        <v>12.06349206</v>
-      </c>
-      <c r="P40" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="14">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="7">
-        <v>39.869999999999997</v>
-      </c>
-      <c r="C41" s="8">
-        <v>31</v>
-      </c>
-      <c r="D41" s="6">
-        <v>4.9362981010916823E-2</v>
-      </c>
-      <c r="E41" s="6">
-        <v>5.8278071795318437E-2</v>
-      </c>
-      <c r="F41" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G41" s="17">
-        <v>9.39</v>
-      </c>
-      <c r="H41" s="12">
-        <v>34.601999999999997</v>
-      </c>
-      <c r="I41" s="14">
-        <v>21069</v>
-      </c>
-      <c r="J41" s="11">
-        <v>1126389</v>
-      </c>
-      <c r="K41" s="18">
-        <v>0</v>
-      </c>
-      <c r="L41" s="10">
-        <v>0</v>
-      </c>
-      <c r="M41" s="13">
-        <v>6.6</v>
-      </c>
-      <c r="N41" s="18">
-        <v>0</v>
-      </c>
-      <c r="O41" s="20">
-        <v>21.875</v>
-      </c>
-      <c r="P41" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="14">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" s="7">
-        <v>43.27</v>
-      </c>
-      <c r="C42" s="8">
-        <v>49</v>
-      </c>
-      <c r="D42" s="6">
-        <v>0.32133343399289999</v>
-      </c>
-      <c r="E42" s="6">
-        <v>1.0275652217696667</v>
-      </c>
-      <c r="F42" s="21">
-        <v>4.83</v>
-      </c>
-      <c r="G42" s="17">
-        <v>10.68</v>
-      </c>
-      <c r="H42" s="12">
-        <v>298.86599999999999</v>
-      </c>
-      <c r="I42" s="14">
-        <v>26280</v>
-      </c>
-      <c r="J42" s="11">
-        <v>253271</v>
-      </c>
-      <c r="K42" s="18">
-        <v>0</v>
-      </c>
-      <c r="L42" s="10">
-        <v>1</v>
-      </c>
-      <c r="M42" s="13">
-        <v>6.2</v>
-      </c>
-      <c r="N42" s="18">
-        <v>0</v>
-      </c>
-      <c r="O42" s="20">
-        <v>25.316455699999999</v>
-      </c>
-      <c r="P42" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="14">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="7">
-        <v>53.68</v>
-      </c>
-      <c r="C43" s="8">
-        <v>16</v>
-      </c>
-      <c r="D43" s="6">
-        <v>5.7982993837179315E-2</v>
-      </c>
-      <c r="E43" s="6">
-        <v>3.1707625752035481E-3</v>
-      </c>
-      <c r="F43" s="21">
-        <v>5.82</v>
-      </c>
-      <c r="G43" s="17">
-        <v>39.630000000000003</v>
-      </c>
-      <c r="H43" s="12">
-        <v>1.022</v>
-      </c>
-      <c r="I43" s="14">
-        <v>21115</v>
-      </c>
-      <c r="J43" s="11">
-        <v>45500</v>
-      </c>
-      <c r="K43" s="18">
-        <v>0</v>
-      </c>
-      <c r="L43" s="10">
-        <v>0</v>
-      </c>
-      <c r="M43" s="13">
-        <v>6.6</v>
-      </c>
-      <c r="N43" s="18">
-        <v>0</v>
-      </c>
-      <c r="O43" s="20">
-        <v>9.8901098899999997</v>
-      </c>
-      <c r="P43" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="7">
-        <v>38.840000000000003</v>
-      </c>
-      <c r="C44" s="8">
-        <v>32</v>
-      </c>
-      <c r="D44" s="6">
-        <v>0.15191520476357961</v>
-      </c>
-      <c r="E44" s="6">
-        <v>1.7677341567336521E-2</v>
-      </c>
-      <c r="F44" s="21">
-        <v>5.82</v>
-      </c>
-      <c r="G44" s="17">
-        <v>20</v>
-      </c>
-      <c r="H44" s="12">
-        <v>5.4930000000000003</v>
-      </c>
-      <c r="I44" s="14">
-        <v>24427</v>
-      </c>
-      <c r="J44" s="11">
-        <v>45500</v>
-      </c>
-      <c r="K44" s="18">
-        <v>0</v>
-      </c>
-      <c r="L44" s="10">
-        <v>0</v>
-      </c>
-      <c r="M44" s="13">
-        <v>6.6</v>
-      </c>
-      <c r="N44" s="18">
-        <v>0</v>
-      </c>
-      <c r="O44" s="20">
-        <v>12.32876712</v>
-      </c>
-      <c r="P44" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="14">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="7">
-        <v>47.45</v>
-      </c>
-      <c r="C45" s="8">
-        <v>48</v>
-      </c>
-      <c r="D45" s="6">
-        <v>0.33796130723535378</v>
-      </c>
-      <c r="E45" s="6">
-        <v>1.8313467303722311</v>
-      </c>
-      <c r="F45" s="21">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="G45" s="17">
-        <v>9.82</v>
-      </c>
-      <c r="H45" s="12">
-        <v>293.642</v>
-      </c>
-      <c r="I45" s="14">
-        <v>26710</v>
-      </c>
-      <c r="J45" s="11">
-        <v>1129689</v>
-      </c>
-      <c r="K45" s="18">
-        <v>0</v>
-      </c>
-      <c r="L45" s="10">
-        <v>1</v>
-      </c>
-      <c r="M45" s="13">
-        <v>9</v>
-      </c>
-      <c r="N45" s="18">
-        <v>0</v>
-      </c>
-      <c r="O45" s="20">
-        <v>25.324675320000001</v>
-      </c>
-      <c r="P45" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="14">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="7">
-        <v>49.91</v>
-      </c>
-      <c r="C46" s="8">
-        <v>53</v>
-      </c>
-      <c r="D46" s="6">
-        <v>0.2327539496959779</v>
-      </c>
-      <c r="E46" s="6">
-        <v>0.61406648259006402</v>
-      </c>
-      <c r="F46" s="21">
-        <v>4.84</v>
-      </c>
-      <c r="G46" s="17">
-        <v>10.46</v>
-      </c>
-      <c r="H46" s="12">
-        <v>249.17599999999999</v>
-      </c>
-      <c r="I46" s="14">
-        <v>34525</v>
-      </c>
-      <c r="J46" s="11">
-        <v>140945</v>
-      </c>
-      <c r="K46" s="18">
-        <v>0</v>
-      </c>
-      <c r="L46" s="10">
-        <v>1</v>
-      </c>
-      <c r="M46" s="13">
-        <v>6.3</v>
-      </c>
-      <c r="N46" s="18">
-        <v>1</v>
-      </c>
-      <c r="O46" s="20">
-        <v>35.294117649999997</v>
-      </c>
-      <c r="P46" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="14">
-        <v>2.19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" s="23">
-        <v>49.19</v>
-      </c>
-      <c r="C47" s="8">
-        <v>35</v>
-      </c>
-      <c r="D47" s="6">
-        <v>7.8050462843696683E-2</v>
-      </c>
-      <c r="E47" s="6">
-        <v>0.28176920386642518</v>
-      </c>
-      <c r="F47" s="21">
-        <v>4.83</v>
-      </c>
-      <c r="G47" s="17">
-        <v>9.98</v>
-      </c>
-      <c r="H47" s="12">
-        <v>61.826999999999998</v>
-      </c>
-      <c r="I47" s="14">
-        <v>23295</v>
-      </c>
-      <c r="J47" s="11">
-        <v>0</v>
-      </c>
-      <c r="K47" s="18">
-        <v>0</v>
-      </c>
-      <c r="L47" s="10">
-        <v>0</v>
-      </c>
-      <c r="M47" s="13">
-        <v>6.8</v>
-      </c>
-      <c r="N47" s="18">
-        <v>0</v>
-      </c>
-      <c r="O47" s="20">
-        <v>60.638297870000002</v>
-      </c>
-      <c r="P47" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="14">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" s="23">
-        <v>48.28</v>
-      </c>
-      <c r="C48" s="8">
-        <v>61</v>
-      </c>
-      <c r="D48" s="6">
-        <v>0.7570894895838578</v>
-      </c>
-      <c r="E48" s="6">
-        <v>0.46596601432422624</v>
-      </c>
-      <c r="F48" s="21">
-        <v>6.83</v>
-      </c>
-      <c r="G48" s="17">
-        <v>9.02</v>
-      </c>
-      <c r="H48" s="12">
-        <v>666.88</v>
-      </c>
-      <c r="I48" s="14">
-        <v>27158</v>
-      </c>
-      <c r="J48" s="11">
-        <v>489064</v>
-      </c>
-      <c r="K48" s="18">
-        <v>0</v>
-      </c>
-      <c r="L48" s="10">
-        <v>0</v>
-      </c>
-      <c r="M48" s="13">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="N48" s="18">
-        <v>1</v>
-      </c>
-      <c r="O48" s="20">
-        <v>21.75572519</v>
-      </c>
-      <c r="P48" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="14">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="14"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="14"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="14"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="14"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="14"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="14"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="14"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="14"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="14"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="14"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="14"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="14"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="14"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="14"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="14"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="14"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="14"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="14"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="20"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="14"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="20"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="14"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="14"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="20"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="14"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="20"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="14"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="20"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="14"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="14"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="20"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="14"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="20"/>
-      <c r="P75" s="10"/>
-      <c r="Q75" s="14"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" s="5"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="20"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="14"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="5"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="20"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="14"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="20"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="14"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A79" s="5"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="20"/>
-      <c r="P79" s="10"/>
-      <c r="Q79" s="14"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="20"/>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="14"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A81" s="5"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="20"/>
-      <c r="P81" s="10"/>
-      <c r="Q81" s="14"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A82" s="5"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="20"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="14"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="20"/>
-      <c r="P83" s="10"/>
-      <c r="Q83" s="14"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A84" s="5"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="13"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="20"/>
-      <c r="P84" s="10"/>
-      <c r="Q84" s="14"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A85" s="5"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="18"/>
-      <c r="O85" s="20"/>
-      <c r="P85" s="10"/>
-      <c r="Q85" s="14"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A86" s="24"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="18"/>
-      <c r="O86" s="20"/>
-      <c r="P86" s="10"/>
-      <c r="Q86" s="14"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A87" s="24"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="18"/>
-      <c r="O87" s="20"/>
-      <c r="P87" s="10"/>
-      <c r="Q87" s="14"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A88" s="5"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="20"/>
-      <c r="P88" s="10"/>
-      <c r="Q88" s="14"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A89" s="5"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="13"/>
-      <c r="N89" s="18"/>
-      <c r="O89" s="20"/>
-      <c r="P89" s="10"/>
-      <c r="Q89" s="14"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A90" s="5"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="20"/>
-      <c r="P90" s="10"/>
-      <c r="Q90" s="14"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A91" s="5"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="18"/>
-      <c r="O91" s="20"/>
-      <c r="P91" s="10"/>
-      <c r="Q91" s="14"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A92" s="5"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="13"/>
-      <c r="N92" s="18"/>
-      <c r="O92" s="20"/>
-      <c r="P92" s="10"/>
-      <c r="Q92" s="14"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A93" s="5"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="10"/>
-      <c r="M93" s="13"/>
-      <c r="N93" s="18"/>
-      <c r="O93" s="20"/>
-      <c r="P93" s="10"/>
-      <c r="Q93" s="14"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A94" s="5"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="18"/>
-      <c r="L94" s="10"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="18"/>
-      <c r="O94" s="20"/>
-      <c r="P94" s="10"/>
-      <c r="Q94" s="14"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A95" s="5"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="18"/>
-      <c r="L95" s="10"/>
-      <c r="M95" s="13"/>
-      <c r="N95" s="18"/>
-      <c r="O95" s="20"/>
-      <c r="P95" s="10"/>
-      <c r="Q95" s="14"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A96" s="5"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="10"/>
-      <c r="M96" s="13"/>
-      <c r="N96" s="18"/>
-      <c r="O96" s="20"/>
-      <c r="P96" s="10"/>
-      <c r="Q96" s="14"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A97" s="5"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="18"/>
-      <c r="L97" s="10"/>
-      <c r="M97" s="13"/>
-      <c r="N97" s="18"/>
-      <c r="O97" s="20"/>
-      <c r="P97" s="10"/>
-      <c r="Q97" s="14"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A98" s="5"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="10"/>
-      <c r="M98" s="13"/>
-      <c r="N98" s="18"/>
-      <c r="O98" s="20"/>
-      <c r="P98" s="10"/>
-      <c r="Q98" s="14"/>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A99" s="5"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="10"/>
-      <c r="M99" s="13"/>
-      <c r="N99" s="18"/>
-      <c r="O99" s="20"/>
-      <c r="P99" s="10"/>
-      <c r="Q99" s="14"/>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A100" s="5"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="10"/>
-      <c r="M100" s="13"/>
-      <c r="N100" s="18"/>
-      <c r="O100" s="20"/>
-      <c r="P100" s="10"/>
-      <c r="Q100" s="14"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A101" s="5"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="18"/>
-      <c r="L101" s="10"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="18"/>
-      <c r="O101" s="20"/>
-      <c r="P101" s="10"/>
-      <c r="Q101" s="14"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A102" s="5"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="18"/>
-      <c r="L102" s="10"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="18"/>
-      <c r="O102" s="20"/>
-      <c r="P102" s="10"/>
-      <c r="Q102" s="14"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A103" s="5"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="12"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="10"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="18"/>
-      <c r="O103" s="20"/>
-      <c r="P103" s="10"/>
-      <c r="Q103" s="14"/>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A104" s="5"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="18"/>
-      <c r="L104" s="10"/>
-      <c r="M104" s="13"/>
-      <c r="N104" s="18"/>
-      <c r="O104" s="20"/>
-      <c r="P104" s="10"/>
-      <c r="Q104" s="14"/>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A105" s="5"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="18"/>
-      <c r="L105" s="10"/>
-      <c r="M105" s="13"/>
-      <c r="N105" s="18"/>
-      <c r="O105" s="20"/>
-      <c r="P105" s="10"/>
-      <c r="Q105" s="14"/>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A106" s="5"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="18"/>
-      <c r="L106" s="10"/>
-      <c r="M106" s="13"/>
-      <c r="N106" s="18"/>
-      <c r="O106" s="20"/>
-      <c r="P106" s="10"/>
-      <c r="Q106" s="14"/>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A107" s="5"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="11"/>
-      <c r="K107" s="18"/>
-      <c r="L107" s="10"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="18"/>
-      <c r="O107" s="20"/>
-      <c r="P107" s="10"/>
-      <c r="Q107" s="14"/>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A108" s="5"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="11"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="10"/>
-      <c r="M108" s="13"/>
-      <c r="N108" s="18"/>
-      <c r="O108" s="20"/>
-      <c r="P108" s="10"/>
-      <c r="Q108" s="14"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A109" s="5"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="11"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="10"/>
-      <c r="M109" s="13"/>
-      <c r="N109" s="18"/>
-      <c r="O109" s="20"/>
-      <c r="P109" s="10"/>
-      <c r="Q109" s="14"/>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A110" s="5"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="14"/>
-      <c r="J110" s="11"/>
-      <c r="K110" s="18"/>
-      <c r="L110" s="10"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="18"/>
-      <c r="O110" s="20"/>
-      <c r="P110" s="10"/>
-      <c r="Q110" s="14"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A111" s="5"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="10"/>
-      <c r="M111" s="13"/>
-      <c r="N111" s="18"/>
-      <c r="O111" s="20"/>
-      <c r="P111" s="10"/>
-      <c r="Q111" s="14"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A112" s="5"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="10"/>
-      <c r="M112" s="13"/>
-      <c r="N112" s="18"/>
-      <c r="O112" s="20"/>
-      <c r="P112" s="10"/>
-      <c r="Q112" s="14"/>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A113" s="5"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="11"/>
-      <c r="K113" s="18"/>
-      <c r="L113" s="10"/>
-      <c r="M113" s="13"/>
-      <c r="N113" s="18"/>
-      <c r="O113" s="20"/>
-      <c r="P113" s="10"/>
-      <c r="Q113" s="14"/>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A114" s="24"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="11"/>
-      <c r="K114" s="18"/>
-      <c r="L114" s="10"/>
-      <c r="M114" s="13"/>
-      <c r="N114" s="18"/>
-      <c r="O114" s="20"/>
-      <c r="P114" s="10"/>
-      <c r="Q114" s="14"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A115" s="5"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="18"/>
-      <c r="L115" s="10"/>
-      <c r="M115" s="13"/>
-      <c r="N115" s="18"/>
-      <c r="O115" s="20"/>
-      <c r="P115" s="10"/>
-      <c r="Q115" s="14"/>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C116" s="27"/>
-      <c r="J116" s="11"/>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C117" s="27"/>
-      <c r="J117" s="11"/>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C118" s="27"/>
-      <c r="J118" s="11"/>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C119" s="27"/>
-      <c r="J119" s="11"/>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C120" s="27"/>
-      <c r="J120" s="11"/>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C121" s="27"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:Q121" xr:uid="{2D1C58B8-AA4C-2D4A-A26B-BAC567BC4C94}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q121">
-      <sortCondition ref="K1:K121"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6252E0-BB6C-1249-929E-99F6DDF5DE53}">
-  <dimension ref="A1:Q115"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="7">
-        <v>80.8</v>
-      </c>
-      <c r="C2" s="8">
-        <v>71</v>
-      </c>
-      <c r="D2" s="6">
-        <v>4.229553921941771</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0.30378082818141117</v>
-      </c>
-      <c r="F2" s="21">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="G2" s="17">
-        <v>22.65</v>
-      </c>
-      <c r="H2" s="12">
-        <v>47.28</v>
-      </c>
-      <c r="I2" s="14">
-        <v>20725</v>
-      </c>
-      <c r="J2" s="11">
-        <v>16845622</v>
-      </c>
-      <c r="K2" s="18">
-        <v>1</v>
-      </c>
-      <c r="L2" s="10">
-        <v>0</v>
-      </c>
-      <c r="M2" s="13">
-        <v>4.8</v>
-      </c>
-      <c r="N2" s="18">
-        <v>0</v>
-      </c>
-      <c r="O2" s="20">
-        <v>12.615955469999999</v>
-      </c>
-      <c r="P2" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="14">
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="7">
-        <v>79.52</v>
-      </c>
-      <c r="C3" s="8">
-        <v>77</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1.5407979217454535</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0.22521259758940393</v>
-      </c>
-      <c r="F3" s="21">
-        <v>6.86</v>
-      </c>
-      <c r="G3" s="17">
-        <v>27.27</v>
-      </c>
-      <c r="H3" s="12">
-        <v>19.792999999999999</v>
-      </c>
-      <c r="I3" s="14">
-        <v>23135</v>
-      </c>
-      <c r="J3" s="11">
-        <v>29081787</v>
-      </c>
-      <c r="K3" s="18">
-        <v>1</v>
-      </c>
-      <c r="L3" s="10">
-        <v>0</v>
-      </c>
-      <c r="M3" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="N3" s="18">
-        <v>0</v>
-      </c>
-      <c r="O3" s="20">
-        <v>2.8787878789999999</v>
-      </c>
-      <c r="P3" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>65.53</v>
-      </c>
-      <c r="C4" s="8">
-        <v>51</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.79087824150056474</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1.1213340609303535</v>
-      </c>
-      <c r="F4" s="21">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="G4" s="17">
-        <v>10.8</v>
-      </c>
-      <c r="H4" s="12">
-        <v>331.577</v>
-      </c>
-      <c r="I4" s="14">
-        <v>25874</v>
-      </c>
-      <c r="J4" s="11">
-        <v>13981320</v>
-      </c>
-      <c r="K4" s="18">
-        <v>1</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0</v>
-      </c>
-      <c r="M4" s="13">
-        <v>6</v>
-      </c>
-      <c r="N4" s="18">
-        <v>0</v>
-      </c>
-      <c r="O4" s="20">
-        <v>23.071161050000001</v>
-      </c>
-      <c r="P4" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="14">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7">
-        <v>59.4</v>
-      </c>
-      <c r="C5" s="8">
-        <v>48</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.34841241838184284</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.45250728390844797</v>
-      </c>
-      <c r="F5" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G5" s="17">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="H5" s="12">
-        <v>196.851</v>
-      </c>
-      <c r="I5" s="14">
-        <v>23234</v>
-      </c>
-      <c r="J5" s="11">
-        <v>992043</v>
-      </c>
-      <c r="K5" s="18">
-        <v>1</v>
-      </c>
-      <c r="L5" s="10">
-        <v>0</v>
-      </c>
-      <c r="M5" s="13">
-        <v>6.5</v>
-      </c>
-      <c r="N5" s="18">
-        <v>1</v>
-      </c>
-      <c r="O5" s="20">
-        <v>14.876033059999999</v>
-      </c>
-      <c r="P5" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="14">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="7">
-        <v>55.7</v>
-      </c>
-      <c r="C6" s="8">
-        <v>41</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.38191508695000465</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.21416936226846969</v>
-      </c>
-      <c r="F6" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G6" s="17">
-        <v>16.75</v>
-      </c>
-      <c r="H6" s="12">
-        <v>26.376999999999999</v>
-      </c>
-      <c r="I6" s="14">
-        <v>18487</v>
-      </c>
-      <c r="J6" s="11">
-        <v>1126389</v>
-      </c>
-      <c r="K6" s="18">
-        <v>1</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0</v>
-      </c>
-      <c r="M6" s="13">
-        <v>6.6</v>
-      </c>
-      <c r="N6" s="18">
-        <v>0</v>
-      </c>
-      <c r="O6" s="20">
-        <v>23.563218389999999</v>
-      </c>
-      <c r="P6" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="14">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="7">
-        <v>82.87</v>
-      </c>
-      <c r="C7" s="8">
-        <v>75</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2.4522499890616403</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0.66166874648732588</v>
-      </c>
-      <c r="F7" s="21">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="G7" s="17">
-        <v>21.43</v>
-      </c>
-      <c r="H7" s="12">
-        <v>79.447999999999993</v>
-      </c>
-      <c r="I7" s="14">
-        <v>18311</v>
-      </c>
-      <c r="J7" s="11">
-        <v>16845622</v>
-      </c>
-      <c r="K7" s="18">
-        <v>1</v>
-      </c>
-      <c r="L7" s="10">
-        <v>1</v>
-      </c>
-      <c r="M7" s="13">
-        <v>4.8</v>
-      </c>
-      <c r="N7" s="18">
-        <v>1</v>
-      </c>
-      <c r="O7" s="20">
-        <v>17.69436997</v>
-      </c>
-      <c r="P7" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="7">
-        <v>49.61</v>
-      </c>
-      <c r="C8" s="8">
-        <v>25</v>
-      </c>
-      <c r="D8" s="6">
-        <v>8.2225878171381286E-2</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.10700303059581759</v>
-      </c>
-      <c r="F8" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G8" s="17">
-        <v>17.170000000000002</v>
-      </c>
-      <c r="H8" s="12">
-        <v>22.550999999999998</v>
-      </c>
-      <c r="I8" s="14">
-        <v>17320</v>
-      </c>
-      <c r="J8" s="11">
-        <v>1133621</v>
-      </c>
-      <c r="K8" s="18">
-        <v>1</v>
-      </c>
-      <c r="L8" s="10">
-        <v>0</v>
-      </c>
-      <c r="M8" s="13">
-        <v>8.9</v>
-      </c>
-      <c r="N8" s="18">
-        <v>0</v>
-      </c>
-      <c r="O8" s="20">
-        <v>14.925373130000001</v>
-      </c>
-      <c r="P8" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="7">
-        <v>68.319999999999993</v>
-      </c>
-      <c r="C9" s="8">
-        <v>70</v>
-      </c>
-      <c r="D9" s="6">
-        <v>8.11589439263693</v>
-      </c>
-      <c r="E9" s="6">
-        <v>10.819587691997839</v>
-      </c>
-      <c r="F9" s="21">
-        <v>5.82</v>
-      </c>
-      <c r="G9" s="17">
-        <v>8.67</v>
-      </c>
-      <c r="H9" s="12">
-        <v>1620.3430000000001</v>
-      </c>
-      <c r="I9" s="14">
-        <v>34669</v>
-      </c>
-      <c r="J9" s="11">
-        <v>50172457</v>
-      </c>
-      <c r="K9" s="18">
-        <v>1</v>
-      </c>
-      <c r="L9" s="10">
-        <v>0</v>
-      </c>
-      <c r="M9" s="13">
-        <v>7.2</v>
-      </c>
-      <c r="N9" s="18">
-        <v>1</v>
-      </c>
-      <c r="O9" s="20">
-        <v>13.95663957</v>
-      </c>
-      <c r="P9" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>2.86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="7">
-        <v>72.58</v>
-      </c>
-      <c r="C10" s="8">
-        <v>54</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1.3508431127738167</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1.694697750119414</v>
-      </c>
-      <c r="F10" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G10" s="17">
-        <v>17.5</v>
-      </c>
-      <c r="H10" s="12">
-        <v>67.745999999999995</v>
-      </c>
-      <c r="I10" s="14">
-        <v>23633</v>
-      </c>
-      <c r="J10" s="11">
-        <v>19021704</v>
-      </c>
-      <c r="K10" s="18">
-        <v>1</v>
-      </c>
-      <c r="L10" s="10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="13">
-        <v>7.6</v>
-      </c>
-      <c r="N10" s="18">
-        <v>0</v>
-      </c>
-      <c r="O10" s="20">
-        <v>26.067615660000001</v>
-      </c>
-      <c r="P10" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="7">
-        <v>60.51</v>
-      </c>
-      <c r="C11" s="8">
-        <v>32</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.16267630824163337</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0.3403058357000649</v>
-      </c>
-      <c r="F11" s="21">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="G11" s="17">
-        <v>13.88</v>
-      </c>
-      <c r="H11" s="12">
-        <v>18.055</v>
-      </c>
-      <c r="I11" s="14">
-        <v>32074</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="18">
-        <v>1</v>
-      </c>
-      <c r="L11" s="10">
-        <v>0</v>
-      </c>
-      <c r="M11" s="13">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="N11" s="18">
-        <v>0</v>
-      </c>
-      <c r="O11" s="20">
-        <v>21.05263158</v>
-      </c>
-      <c r="P11" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="7">
-        <v>77.16</v>
-      </c>
-      <c r="C12" s="8">
-        <v>44</v>
-      </c>
-      <c r="D12" s="6">
-        <v>4.8018962263899718</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1.19396901906404</v>
-      </c>
-      <c r="F12" s="21">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="G12" s="17">
-        <v>21.52</v>
-      </c>
-      <c r="H12" s="12">
-        <v>67.558000000000007</v>
-      </c>
-      <c r="I12" s="14">
-        <v>20433</v>
-      </c>
-      <c r="J12" s="11">
-        <v>13981320</v>
-      </c>
-      <c r="K12" s="18">
-        <v>1</v>
-      </c>
-      <c r="L12" s="10">
-        <v>0</v>
-      </c>
-      <c r="M12" s="13">
-        <v>6</v>
-      </c>
-      <c r="N12" s="18">
-        <v>1</v>
-      </c>
-      <c r="O12" s="20">
-        <v>16.501901140000001</v>
-      </c>
-      <c r="P12" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="7">
-        <v>76.680000000000007</v>
-      </c>
-      <c r="C13" s="8">
-        <v>70</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.78862543818673347</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1.5928659202900228</v>
-      </c>
-      <c r="F13" s="21">
-        <v>5.82</v>
-      </c>
-      <c r="G13" s="17">
-        <v>17.809999999999999</v>
-      </c>
-      <c r="H13" s="12">
-        <v>18.728000000000002</v>
-      </c>
-      <c r="I13" s="14">
-        <v>23784</v>
-      </c>
-      <c r="J13" s="11">
-        <v>50172457</v>
-      </c>
-      <c r="K13" s="18">
-        <v>1</v>
-      </c>
-      <c r="L13" s="10">
-        <v>0</v>
-      </c>
-      <c r="M13" s="13">
-        <v>7.2</v>
-      </c>
-      <c r="N13" s="18">
-        <v>0</v>
-      </c>
-      <c r="O13" s="20">
-        <v>7.03125</v>
-      </c>
-      <c r="P13" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="7">
-        <v>76.44</v>
-      </c>
-      <c r="C14" s="8">
-        <v>41</v>
-      </c>
-      <c r="D14" s="6">
-        <v>3.5358442607760034</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0.2314996890475329</v>
-      </c>
-      <c r="F14" s="21">
-        <v>6.86</v>
-      </c>
-      <c r="G14" s="17">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="H14" s="12">
-        <v>49.332999999999998</v>
-      </c>
-      <c r="I14" s="14">
-        <v>27846</v>
-      </c>
-      <c r="J14" s="11">
-        <v>29081787</v>
-      </c>
-      <c r="K14" s="18">
-        <v>1</v>
-      </c>
-      <c r="L14" s="10">
-        <v>0</v>
-      </c>
-      <c r="M14" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="N14" s="18">
-        <v>0</v>
-      </c>
-      <c r="O14" s="20">
-        <v>13.33333333</v>
-      </c>
-      <c r="P14" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="7">
-        <v>71.459999999999994</v>
-      </c>
-      <c r="C15" s="8">
-        <v>96</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0.49322335739783468</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0.63408447292536196</v>
-      </c>
-      <c r="F15" s="21">
-        <v>5.82</v>
-      </c>
-      <c r="G15" s="17">
-        <v>14.49</v>
-      </c>
-      <c r="H15" s="12">
-        <v>33.362000000000002</v>
-      </c>
-      <c r="I15" s="14">
-        <v>28246</v>
-      </c>
-      <c r="J15" s="11">
-        <v>1037576</v>
-      </c>
-      <c r="K15" s="18">
-        <v>1</v>
-      </c>
-      <c r="L15" s="10">
-        <v>0</v>
-      </c>
-      <c r="M15" s="13">
-        <v>7.1</v>
-      </c>
-      <c r="N15" s="18">
-        <v>0</v>
-      </c>
-      <c r="O15" s="20">
-        <v>12.23404255</v>
-      </c>
-      <c r="P15" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="7">
-        <v>77.53</v>
-      </c>
-      <c r="C16" s="8">
-        <v>54</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1.2466057179421164</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0.14376618551818834</v>
-      </c>
-      <c r="F16" s="21">
-        <v>6.86</v>
-      </c>
-      <c r="G16" s="17">
-        <v>21.15</v>
-      </c>
-      <c r="H16" s="12">
-        <v>11.6</v>
-      </c>
-      <c r="I16" s="14">
-        <v>19419</v>
-      </c>
-      <c r="J16" s="11">
-        <v>29081787</v>
-      </c>
-      <c r="K16" s="18">
-        <v>1</v>
-      </c>
-      <c r="L16" s="10">
-        <v>0</v>
-      </c>
-      <c r="M16" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="N16" s="18">
-        <v>0</v>
-      </c>
-      <c r="O16" s="20">
-        <v>6.451612903</v>
-      </c>
-      <c r="P16" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="14">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="7">
-        <v>57.52</v>
-      </c>
-      <c r="C17" s="8">
-        <v>38</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0.46003604007122467</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0.26083264497393305</v>
-      </c>
-      <c r="F17" s="21">
-        <v>12.1</v>
-      </c>
-      <c r="G17" s="17">
-        <v>9.7899999999999991</v>
-      </c>
-      <c r="H17" s="12">
-        <v>213.94300000000001</v>
-      </c>
-      <c r="I17" s="14">
-        <v>24712</v>
-      </c>
-      <c r="J17" s="11">
-        <v>1273424</v>
-      </c>
-      <c r="K17" s="18">
-        <v>1</v>
-      </c>
-      <c r="L17" s="10">
-        <v>0</v>
-      </c>
-      <c r="M17" s="13">
-        <v>10.6</v>
-      </c>
-      <c r="N17" s="18">
-        <v>1</v>
-      </c>
-      <c r="O17" s="20">
-        <v>22.988505750000002</v>
-      </c>
-      <c r="P17" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="7">
-        <v>48.83</v>
-      </c>
-      <c r="C18" s="8">
-        <v>48</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0.31096930207774093</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0.33344038626148043</v>
-      </c>
-      <c r="F18" s="21">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="G18" s="17">
-        <v>16.079999999999998</v>
-      </c>
-      <c r="H18" s="12">
-        <v>10.585000000000001</v>
-      </c>
-      <c r="I18" s="14">
-        <v>27101</v>
-      </c>
-      <c r="J18" s="11">
-        <v>2019876</v>
-      </c>
-      <c r="K18" s="18">
-        <v>1</v>
-      </c>
-      <c r="L18" s="10">
-        <v>0</v>
-      </c>
-      <c r="M18" s="13">
-        <v>5.6</v>
-      </c>
-      <c r="N18" s="18">
-        <v>0</v>
-      </c>
-      <c r="O18" s="20">
-        <v>10.81081081</v>
-      </c>
-      <c r="P18" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="14">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="7">
-        <v>43.05</v>
-      </c>
-      <c r="C19" s="8">
-        <v>51</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0.18324133142926588</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1.0816382908364963</v>
-      </c>
-      <c r="F19" s="21">
-        <v>5.82</v>
-      </c>
-      <c r="G19" s="17">
-        <v>8.76</v>
-      </c>
-      <c r="H19" s="12">
-        <v>170.88800000000001</v>
-      </c>
-      <c r="I19" s="14">
-        <v>25495</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="18">
-        <v>1</v>
-      </c>
-      <c r="L19" s="10">
-        <v>0</v>
-      </c>
-      <c r="M19" s="13">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="N19" s="18">
-        <v>0</v>
-      </c>
-      <c r="O19" s="20">
-        <v>28.358208959999999</v>
-      </c>
-      <c r="P19" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="7">
-        <v>67.77</v>
-      </c>
-      <c r="C20" s="8">
-        <v>29</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0.86664251089897171</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0.27770708958016654</v>
-      </c>
-      <c r="F20" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G20" s="17">
-        <v>10.25</v>
-      </c>
-      <c r="H20" s="12">
-        <v>83.831000000000003</v>
-      </c>
-      <c r="I20" s="14">
-        <v>21342</v>
-      </c>
-      <c r="J20" s="11">
-        <v>1133621</v>
-      </c>
-      <c r="K20" s="18">
-        <v>1</v>
-      </c>
-      <c r="L20" s="10">
-        <v>0</v>
-      </c>
-      <c r="M20" s="13">
-        <v>8.9</v>
-      </c>
-      <c r="N20" s="18">
-        <v>0</v>
-      </c>
-      <c r="O20" s="20">
-        <v>17.040358739999999</v>
-      </c>
-      <c r="P20" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="14">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="7">
-        <v>79.849999999999994</v>
-      </c>
-      <c r="C21" s="8">
-        <v>70</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0.81957767782485436</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0.10690096742279602</v>
-      </c>
-      <c r="F21" s="21">
-        <v>6.86</v>
-      </c>
-      <c r="G21" s="17">
-        <v>13.2</v>
-      </c>
-      <c r="H21" s="12">
-        <v>29.222999999999999</v>
-      </c>
-      <c r="I21" s="14">
-        <v>21088</v>
-      </c>
-      <c r="J21" s="11">
-        <v>3442752</v>
-      </c>
-      <c r="K21" s="18">
-        <v>1</v>
-      </c>
-      <c r="L21" s="10">
-        <v>0</v>
-      </c>
-      <c r="M21" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="N21" s="18">
-        <v>0</v>
-      </c>
-      <c r="O21" s="20">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="P21" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="14">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="7">
-        <v>65.06</v>
-      </c>
-      <c r="C22" s="8">
-        <v>44</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0.35358170540022227</v>
-      </c>
-      <c r="E22" s="6">
-        <v>3.9654944824648666E-2</v>
-      </c>
-      <c r="F22" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G22" s="17">
-        <v>15.82</v>
-      </c>
-      <c r="H22" s="12">
-        <v>22.427</v>
-      </c>
-      <c r="I22" s="14">
-        <v>19287</v>
-      </c>
-      <c r="J22" s="11">
-        <v>1133621</v>
-      </c>
-      <c r="K22" s="18">
-        <v>1</v>
-      </c>
-      <c r="L22" s="10">
-        <v>0</v>
-      </c>
-      <c r="M22" s="13">
-        <v>8.9</v>
-      </c>
-      <c r="N22" s="18">
-        <v>0</v>
-      </c>
-      <c r="O22" s="20">
-        <v>6.2015503880000002</v>
-      </c>
-      <c r="P22" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="14">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="7">
-        <v>49.22</v>
-      </c>
-      <c r="C23" s="8">
-        <v>45</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0.3901570905102501</v>
-      </c>
-      <c r="E23" s="6">
-        <v>4.4074348258598146</v>
-      </c>
-      <c r="F23" s="21">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="G23" s="17">
-        <v>10.17</v>
-      </c>
-      <c r="H23" s="12">
-        <v>244.85</v>
-      </c>
-      <c r="I23" s="14">
-        <v>27290</v>
-      </c>
-      <c r="J23" s="11">
-        <v>3950513</v>
-      </c>
-      <c r="K23" s="18">
-        <v>1</v>
-      </c>
-      <c r="L23" s="10">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="N23" s="18">
-        <v>0</v>
-      </c>
-      <c r="O23" s="20">
-        <v>25.210084030000001</v>
-      </c>
-      <c r="P23" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="14">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="7">
-        <v>58.21</v>
-      </c>
-      <c r="C24" s="8">
-        <v>50</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0.18576372913783556</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0.42894429936353407</v>
-      </c>
-      <c r="F24" s="21">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="G24" s="17">
-        <v>12.14</v>
-      </c>
-      <c r="H24" s="12">
-        <v>41.732999999999997</v>
-      </c>
-      <c r="I24" s="14">
-        <v>22071</v>
-      </c>
-      <c r="J24" s="11">
-        <v>13981320</v>
-      </c>
-      <c r="K24" s="18">
-        <v>1</v>
-      </c>
-      <c r="L24" s="10">
-        <v>0</v>
-      </c>
-      <c r="M24" s="13">
-        <v>6</v>
-      </c>
-      <c r="N24" s="18">
-        <v>0</v>
-      </c>
-      <c r="O24" s="20">
-        <v>6.2972292190000001</v>
-      </c>
-      <c r="P24" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="14">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="7">
-        <v>63.25</v>
-      </c>
-      <c r="C25" s="8">
-        <v>51</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0.54174581398845845</v>
-      </c>
-      <c r="E25" s="6">
-        <v>2.0889950043478911</v>
-      </c>
-      <c r="F25" s="21">
-        <v>4.84</v>
-      </c>
-      <c r="G25" s="17">
-        <v>6.34</v>
-      </c>
-      <c r="H25" s="12">
-        <v>186.66499999999999</v>
-      </c>
-      <c r="I25" s="14">
-        <v>39337</v>
-      </c>
-      <c r="J25" s="11">
-        <v>289444</v>
-      </c>
-      <c r="K25" s="18">
-        <v>1</v>
-      </c>
-      <c r="L25" s="10">
-        <v>0</v>
-      </c>
-      <c r="M25" s="13">
-        <v>11.6</v>
-      </c>
-      <c r="N25" s="18">
-        <v>1</v>
-      </c>
-      <c r="O25" s="20">
-        <v>14.65517241</v>
-      </c>
-      <c r="P25" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="14">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="7">
-        <v>54.22</v>
-      </c>
-      <c r="C26" s="8">
-        <v>36</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0.14846942564183849</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0.48135714081587949</v>
-      </c>
-      <c r="F26" s="21">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="G26" s="17">
-        <v>7.34</v>
-      </c>
-      <c r="H26" s="12">
-        <v>230.625</v>
-      </c>
-      <c r="I26" s="14">
-        <v>19495</v>
-      </c>
-      <c r="J26" s="11">
-        <v>13981320</v>
-      </c>
-      <c r="K26" s="18">
-        <v>1</v>
-      </c>
-      <c r="L26" s="10">
-        <v>1</v>
-      </c>
-      <c r="M26" s="13">
-        <v>6</v>
-      </c>
-      <c r="N26" s="18">
-        <v>0</v>
-      </c>
-      <c r="O26" s="20">
-        <v>16.129032259999999</v>
-      </c>
-      <c r="P26" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="14">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="7">
-        <v>69.650000000000006</v>
-      </c>
-      <c r="C27" s="8">
-        <v>41</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0.5308016831231509</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0.33282120301181617</v>
-      </c>
-      <c r="F27" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G27" s="17">
-        <v>11.99</v>
-      </c>
-      <c r="H27" s="12">
-        <v>67.012</v>
-      </c>
-      <c r="I27" s="14">
-        <v>20949</v>
-      </c>
-      <c r="J27" s="11">
-        <v>19021704</v>
-      </c>
-      <c r="K27" s="18">
-        <v>1</v>
-      </c>
-      <c r="L27" s="10">
-        <v>0</v>
-      </c>
-      <c r="M27" s="13">
-        <v>7.6</v>
-      </c>
-      <c r="N27" s="18">
-        <v>0</v>
-      </c>
-      <c r="O27" s="20">
-        <v>18.564920269999998</v>
-      </c>
-      <c r="P27" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="14">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="7">
-        <v>64.790000000000006</v>
-      </c>
-      <c r="C28" s="8">
-        <v>51</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1.07794350724483</v>
-      </c>
-      <c r="E28" s="6">
-        <v>4.9470632342594776</v>
-      </c>
-      <c r="F28" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G28" s="17">
-        <v>17.62</v>
-      </c>
-      <c r="H28" s="12">
-        <v>75.396000000000001</v>
-      </c>
-      <c r="I28" s="14">
-        <v>21787</v>
-      </c>
-      <c r="J28" s="11">
-        <v>19021704</v>
-      </c>
-      <c r="K28" s="18">
-        <v>1</v>
-      </c>
-      <c r="L28" s="10">
-        <v>0</v>
-      </c>
-      <c r="M28" s="13">
-        <v>7.6</v>
-      </c>
-      <c r="N28" s="18">
-        <v>0</v>
-      </c>
-      <c r="O28" s="20">
-        <v>20.02923977</v>
-      </c>
-      <c r="P28" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="14">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="7">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="C29" s="8">
-        <v>32</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0.46027883991602736</v>
-      </c>
-      <c r="E29" s="6">
-        <v>0.82622860245577612</v>
-      </c>
-      <c r="F29" s="21">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="G29" s="17">
-        <v>12.76</v>
-      </c>
-      <c r="H29" s="12">
-        <v>73.828999999999994</v>
-      </c>
-      <c r="I29" s="14">
-        <v>20810</v>
-      </c>
-      <c r="J29" s="11">
-        <v>7769867</v>
-      </c>
-      <c r="K29" s="18">
-        <v>1</v>
-      </c>
-      <c r="L29" s="10">
-        <v>0</v>
-      </c>
-      <c r="M29" s="13">
-        <v>10.5</v>
-      </c>
-      <c r="N29" s="18">
-        <v>0</v>
-      </c>
-      <c r="O29" s="20">
-        <v>16.981132079999998</v>
-      </c>
-      <c r="P29" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="14">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="7">
-        <v>48.13</v>
-      </c>
-      <c r="C30" s="8">
-        <v>34</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0.34470776268533759</v>
-      </c>
-      <c r="E30" s="6">
-        <v>1.0185428372745597</v>
-      </c>
-      <c r="F30" s="21">
-        <v>10.4</v>
-      </c>
-      <c r="G30" s="17">
-        <v>10.78</v>
-      </c>
-      <c r="H30" s="12">
-        <v>271.84300000000002</v>
-      </c>
-      <c r="I30" s="14">
-        <v>25931</v>
-      </c>
-      <c r="J30" s="11">
-        <v>1400481</v>
-      </c>
-      <c r="K30" s="18">
-        <v>1</v>
-      </c>
-      <c r="L30" s="10">
-        <v>0</v>
-      </c>
-      <c r="M30" s="13">
-        <v>11.9</v>
-      </c>
-      <c r="N30" s="18">
-        <v>1</v>
-      </c>
-      <c r="O30" s="20">
-        <v>21.64948454</v>
-      </c>
-      <c r="P30" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="14">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="7">
-        <v>47.65</v>
-      </c>
-      <c r="C31" s="8">
-        <v>30</v>
-      </c>
-      <c r="D31" s="6">
-        <v>0.13761227400786108</v>
-      </c>
-      <c r="E31" s="6">
-        <v>0.33397111476119262</v>
-      </c>
-      <c r="F31" s="21">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="G31" s="17">
-        <v>19.66</v>
-      </c>
-      <c r="H31" s="12">
-        <v>10.7</v>
-      </c>
-      <c r="I31" s="14">
-        <v>17544</v>
-      </c>
-      <c r="J31" s="11">
-        <v>1129689</v>
-      </c>
-      <c r="K31" s="18">
-        <v>1</v>
-      </c>
-      <c r="L31" s="10">
-        <v>0</v>
-      </c>
-      <c r="M31" s="13">
-        <v>9</v>
-      </c>
-      <c r="N31" s="18">
-        <v>0</v>
-      </c>
-      <c r="O31" s="20">
-        <v>8.5365853660000006</v>
-      </c>
-      <c r="P31" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="14">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="7">
-        <v>77.13</v>
-      </c>
-      <c r="C32" s="8">
-        <v>32</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0.63455760050369803</v>
-      </c>
-      <c r="E32" s="6">
-        <v>3.048225529673847</v>
-      </c>
-      <c r="F32" s="21">
-        <v>6.86</v>
-      </c>
-      <c r="G32" s="17">
-        <v>13.26</v>
-      </c>
-      <c r="H32" s="12">
-        <v>49.726999999999997</v>
-      </c>
-      <c r="I32" s="14">
-        <v>27508</v>
-      </c>
-      <c r="J32" s="11">
-        <v>8104316</v>
-      </c>
-      <c r="K32" s="18">
-        <v>1</v>
-      </c>
-      <c r="L32" s="10">
-        <v>0</v>
-      </c>
-      <c r="M32" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="N32" s="18">
-        <v>1</v>
-      </c>
-      <c r="O32" s="20">
-        <v>10.58823529</v>
-      </c>
-      <c r="P32" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="14">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="7">
-        <v>65.38</v>
-      </c>
-      <c r="C33" s="8">
-        <v>72</v>
-      </c>
-      <c r="D33" s="6">
-        <v>0.54644104358489709</v>
-      </c>
-      <c r="E33" s="6">
-        <v>2.5626974071871529</v>
-      </c>
-      <c r="F33" s="21">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="G33" s="17">
-        <v>9.68</v>
-      </c>
-      <c r="H33" s="12">
-        <v>378.517</v>
-      </c>
-      <c r="I33" s="14">
-        <v>26709</v>
-      </c>
-      <c r="J33" s="11">
-        <v>28439431</v>
-      </c>
-      <c r="K33" s="18">
-        <v>1</v>
-      </c>
-      <c r="L33" s="10">
-        <v>0</v>
-      </c>
-      <c r="M33" s="13">
-        <v>3.9</v>
-      </c>
-      <c r="N33" s="18">
-        <v>0</v>
-      </c>
-      <c r="O33" s="20">
-        <v>16.32</v>
-      </c>
-      <c r="P33" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="14">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="7">
-        <v>40.159999999999997</v>
-      </c>
-      <c r="C34" s="8">
-        <v>18</v>
-      </c>
-      <c r="D34" s="6">
-        <v>9.838216733496534E-2</v>
-      </c>
-      <c r="E34" s="6">
-        <v>3.5204990480908069E-2</v>
-      </c>
-      <c r="F34" s="21">
-        <v>10.4</v>
-      </c>
-      <c r="G34" s="17">
-        <v>10.81</v>
-      </c>
-      <c r="H34" s="12">
-        <v>13.638999999999999</v>
-      </c>
-      <c r="I34" s="14">
-        <v>19830</v>
-      </c>
-      <c r="J34" s="11">
-        <v>1400481</v>
-      </c>
-      <c r="K34" s="18">
-        <v>1</v>
-      </c>
-      <c r="L34" s="10">
-        <v>0</v>
-      </c>
-      <c r="M34" s="13">
-        <v>11.9</v>
-      </c>
-      <c r="N34" s="18">
-        <v>0</v>
-      </c>
-      <c r="O34" s="20">
-        <v>13.513513509999999</v>
-      </c>
-      <c r="P34" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="7">
-        <v>69.92</v>
-      </c>
-      <c r="C35" s="8">
-        <v>83</v>
-      </c>
-      <c r="D35" s="6">
-        <v>2.0557693847665464</v>
-      </c>
-      <c r="E35" s="6">
-        <v>0.52184219944777022</v>
-      </c>
-      <c r="F35" s="21">
-        <v>5.82</v>
-      </c>
-      <c r="G35" s="17">
-        <v>18.09</v>
-      </c>
-      <c r="H35" s="12">
-        <v>37.35</v>
-      </c>
-      <c r="I35" s="14">
-        <v>22200</v>
-      </c>
-      <c r="J35" s="11">
-        <v>2019876</v>
-      </c>
-      <c r="K35" s="18">
-        <v>1</v>
-      </c>
-      <c r="L35" s="10">
-        <v>0</v>
-      </c>
-      <c r="M35" s="13">
-        <v>5.6</v>
-      </c>
-      <c r="N35" s="18">
-        <v>0</v>
-      </c>
-      <c r="O35" s="20">
-        <v>7.3598130839999998</v>
-      </c>
-      <c r="P35" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="14">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="7">
-        <v>84.42</v>
-      </c>
-      <c r="C36" s="8">
-        <v>61</v>
-      </c>
-      <c r="D36" s="6">
-        <v>0.77223500587909522</v>
-      </c>
-      <c r="E36" s="6">
-        <v>7.5656028055125002E-2</v>
-      </c>
-      <c r="F36" s="21">
-        <v>6.86</v>
-      </c>
-      <c r="G36" s="17">
-        <v>10.48</v>
-      </c>
-      <c r="H36" s="12">
-        <v>36.357999999999997</v>
-      </c>
-      <c r="I36" s="14">
-        <v>25806</v>
-      </c>
-      <c r="J36" s="11">
-        <v>29081787</v>
-      </c>
-      <c r="K36" s="18">
-        <v>1</v>
-      </c>
-      <c r="L36" s="10">
-        <v>0</v>
-      </c>
-      <c r="M36" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="N36" s="18">
-        <v>1</v>
-      </c>
-      <c r="O36" s="20">
-        <v>7.9646017699999998</v>
-      </c>
-      <c r="P36" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="14">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="7">
-        <v>65.66</v>
-      </c>
-      <c r="C37" s="8">
-        <v>67</v>
-      </c>
-      <c r="D37" s="6">
-        <v>1.0243325595094794</v>
-      </c>
-      <c r="E37" s="6">
-        <v>0.97622744573981524</v>
-      </c>
-      <c r="F37" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G37" s="17">
-        <v>9.82</v>
-      </c>
-      <c r="H37" s="12">
-        <v>571.02599999999995</v>
-      </c>
-      <c r="I37" s="14">
-        <v>24463</v>
-      </c>
-      <c r="J37" s="11">
-        <v>19021704</v>
-      </c>
-      <c r="K37" s="18">
-        <v>1</v>
-      </c>
-      <c r="L37" s="10">
-        <v>1</v>
-      </c>
-      <c r="M37" s="13">
-        <v>7.6</v>
-      </c>
-      <c r="N37" s="18">
-        <v>0</v>
-      </c>
-      <c r="O37" s="20">
-        <v>18.683083509999999</v>
-      </c>
-      <c r="P37" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="14">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="7">
-        <v>53.13</v>
-      </c>
-      <c r="C38" s="8">
-        <v>41</v>
-      </c>
-      <c r="D38" s="6">
-        <v>1.1604595910032081</v>
-      </c>
-      <c r="E38" s="6">
-        <v>0.84212324060100252</v>
-      </c>
-      <c r="F38" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G38" s="17">
-        <v>11.67</v>
-      </c>
-      <c r="H38" s="12">
-        <v>141.46299999999999</v>
-      </c>
-      <c r="I38" s="14">
-        <v>24182</v>
-      </c>
-      <c r="J38" s="11">
-        <v>19021704</v>
-      </c>
-      <c r="K38" s="18">
-        <v>1</v>
-      </c>
-      <c r="L38" s="10">
-        <v>0</v>
-      </c>
-      <c r="M38" s="13">
-        <v>7.6</v>
-      </c>
-      <c r="N38" s="18">
-        <v>0</v>
-      </c>
-      <c r="O38" s="20">
-        <v>23.529411759999999</v>
-      </c>
-      <c r="P38" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="14">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="7">
-        <v>77.86</v>
-      </c>
-      <c r="C39" s="8">
-        <v>66</v>
-      </c>
-      <c r="D39" s="6">
-        <v>1.8539998281686125</v>
-      </c>
-      <c r="E39" s="6">
-        <v>7.7581619919465356E-2</v>
-      </c>
-      <c r="F39" s="21">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="G39" s="17">
-        <v>31.66</v>
-      </c>
-      <c r="H39" s="12">
-        <v>19.657</v>
-      </c>
-      <c r="I39" s="14">
-        <v>20014</v>
-      </c>
-      <c r="J39" s="11">
-        <v>28439431</v>
-      </c>
-      <c r="K39" s="18">
-        <v>1</v>
-      </c>
-      <c r="L39" s="10">
-        <v>0</v>
-      </c>
-      <c r="M39" s="13">
-        <v>3.9</v>
-      </c>
-      <c r="N39" s="18">
-        <v>0</v>
-      </c>
-      <c r="O39" s="20">
-        <v>14.28571429</v>
-      </c>
-      <c r="P39" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="14">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="7">
-        <v>42.86</v>
-      </c>
-      <c r="C40" s="8">
-        <v>29</v>
-      </c>
-      <c r="D40" s="6">
-        <v>0.40261820512576774</v>
-      </c>
-      <c r="E40" s="6">
-        <v>5.9543655140785946E-2</v>
-      </c>
-      <c r="F40" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G40" s="17">
-        <v>23.8</v>
-      </c>
-      <c r="H40" s="12">
-        <v>6.3010000000000002</v>
-      </c>
-      <c r="I40" s="14">
-        <v>20732</v>
-      </c>
-      <c r="J40" s="11">
-        <v>992043</v>
-      </c>
-      <c r="K40" s="18">
-        <v>1</v>
-      </c>
-      <c r="L40" s="10">
-        <v>0</v>
-      </c>
-      <c r="M40" s="13">
-        <v>6.5</v>
-      </c>
-      <c r="N40" s="18">
-        <v>0</v>
-      </c>
-      <c r="O40" s="20">
-        <v>16.92307692</v>
-      </c>
-      <c r="P40" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="14">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="7">
-        <v>84.17</v>
-      </c>
-      <c r="C41" s="8">
-        <v>66</v>
-      </c>
-      <c r="D41" s="6">
-        <v>1.2478407405822332</v>
-      </c>
-      <c r="E41" s="6">
-        <v>8.0480214033278041E-2</v>
-      </c>
-      <c r="F41" s="21">
-        <v>6.86</v>
-      </c>
-      <c r="G41" s="17">
-        <v>10.17</v>
-      </c>
-      <c r="H41" s="12">
-        <v>6.931</v>
-      </c>
-      <c r="I41" s="14">
-        <v>21692</v>
-      </c>
-      <c r="J41" s="11">
-        <v>29081787</v>
-      </c>
-      <c r="K41" s="18">
-        <v>1</v>
-      </c>
-      <c r="L41" s="10">
-        <v>0</v>
-      </c>
-      <c r="M41" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="N41" s="18">
-        <v>0</v>
-      </c>
-      <c r="O41" s="20">
-        <v>5</v>
-      </c>
-      <c r="P41" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="14">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="7">
-        <v>63.13</v>
-      </c>
-      <c r="C42" s="8">
-        <v>59</v>
-      </c>
-      <c r="D42" s="6">
-        <v>0.3842218915875526</v>
-      </c>
-      <c r="E42" s="6">
-        <v>0.1685947534085698</v>
-      </c>
-      <c r="F42" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G42" s="17">
-        <v>18.649999999999999</v>
-      </c>
-      <c r="H42" s="12">
-        <v>21.061</v>
-      </c>
-      <c r="I42" s="14">
-        <v>18084</v>
-      </c>
-      <c r="J42" s="11">
-        <v>19021704</v>
-      </c>
-      <c r="K42" s="18">
-        <v>1</v>
-      </c>
-      <c r="L42" s="10">
-        <v>0</v>
-      </c>
-      <c r="M42" s="13">
-        <v>7.6</v>
-      </c>
-      <c r="N42" s="18">
-        <v>0</v>
-      </c>
-      <c r="O42" s="20">
-        <v>6.7524115760000001</v>
-      </c>
-      <c r="P42" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="14">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="7">
-        <v>43.6</v>
-      </c>
-      <c r="C43" s="8">
-        <v>24</v>
-      </c>
-      <c r="D43" s="6">
-        <v>8.2864825131388306E-2</v>
-      </c>
-      <c r="E43" s="6">
-        <v>3.417075032762279E-2</v>
-      </c>
-      <c r="F43" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G43" s="17">
-        <v>16.91</v>
-      </c>
-      <c r="H43" s="12">
-        <v>30.122</v>
-      </c>
-      <c r="I43" s="14">
-        <v>14691</v>
-      </c>
-      <c r="J43" s="11">
-        <v>992043</v>
-      </c>
-      <c r="K43" s="18">
-        <v>1</v>
-      </c>
-      <c r="L43" s="10">
-        <v>0</v>
-      </c>
-      <c r="M43" s="13">
-        <v>6.5</v>
-      </c>
-      <c r="N43" s="18">
-        <v>0</v>
-      </c>
-      <c r="O43" s="20">
-        <v>16</v>
-      </c>
-      <c r="P43" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="14">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="7">
-        <v>78.489999999999995</v>
-      </c>
-      <c r="C44" s="8">
-        <v>64</v>
-      </c>
-      <c r="D44" s="6">
-        <v>3.5809184649018153</v>
-      </c>
-      <c r="E44" s="6">
-        <v>1.6663514048655556E-2</v>
-      </c>
-      <c r="F44" s="21">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="G44" s="17">
-        <v>8.7200000000000006</v>
-      </c>
-      <c r="H44" s="12">
-        <v>20.539000000000001</v>
-      </c>
-      <c r="I44" s="14">
-        <v>19136</v>
-      </c>
-      <c r="J44" s="11">
-        <v>28439431</v>
-      </c>
-      <c r="K44" s="18">
-        <v>1</v>
-      </c>
-      <c r="L44" s="10">
-        <v>0</v>
-      </c>
-      <c r="M44" s="13">
-        <v>3.9</v>
-      </c>
-      <c r="N44" s="18">
-        <v>0</v>
-      </c>
-      <c r="O44" s="20">
-        <v>0</v>
-      </c>
-      <c r="P44" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="7">
-        <v>75.58</v>
-      </c>
-      <c r="C45" s="8">
-        <v>64</v>
-      </c>
-      <c r="D45" s="6">
-        <v>3.5950890718032356</v>
-      </c>
-      <c r="E45" s="6">
-        <v>9.7462233223876265</v>
-      </c>
-      <c r="F45" s="21">
-        <v>6.86</v>
-      </c>
-      <c r="G45" s="17">
-        <v>11.89</v>
-      </c>
-      <c r="H45" s="12">
-        <v>409.661</v>
-      </c>
-      <c r="I45" s="14">
-        <v>27994</v>
-      </c>
-      <c r="J45" s="11">
-        <v>29081787</v>
-      </c>
-      <c r="K45" s="18">
-        <v>1</v>
-      </c>
-      <c r="L45" s="10">
-        <v>0</v>
-      </c>
-      <c r="M45" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="N45" s="18">
-        <v>0</v>
-      </c>
-      <c r="O45" s="20">
-        <v>12.716763009999999</v>
-      </c>
-      <c r="P45" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="14">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="7">
-        <v>60.89</v>
-      </c>
-      <c r="C46" s="8">
-        <v>19</v>
-      </c>
-      <c r="D46" s="6">
-        <v>0.6972626184872518</v>
-      </c>
-      <c r="E46" s="6">
-        <v>6.4224952676708788E-2</v>
-      </c>
-      <c r="F46" s="21">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="G46" s="17">
-        <v>22.91</v>
-      </c>
-      <c r="H46" s="12">
-        <v>7.4470000000000001</v>
-      </c>
-      <c r="I46" s="14">
-        <v>19258</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="18">
-        <v>1</v>
-      </c>
-      <c r="L46" s="10">
-        <v>0</v>
-      </c>
-      <c r="M46" s="13">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="N46" s="18">
-        <v>0</v>
-      </c>
-      <c r="O46" s="20">
-        <v>7.0422535210000001</v>
-      </c>
-      <c r="P46" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="14">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" s="7">
-        <v>82.26</v>
-      </c>
-      <c r="C47" s="8">
-        <v>74</v>
-      </c>
-      <c r="D47" s="6">
-        <v>1.8111578161643735</v>
-      </c>
-      <c r="E47" s="6">
-        <v>2.384052833341725</v>
-      </c>
-      <c r="F47" s="21">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="G47" s="17">
-        <v>24.16</v>
-      </c>
-      <c r="H47" s="12">
-        <v>30.483000000000001</v>
-      </c>
-      <c r="I47" s="14">
-        <v>22451</v>
-      </c>
-      <c r="J47" s="11">
-        <v>16845622</v>
-      </c>
-      <c r="K47" s="18">
-        <v>1</v>
-      </c>
-      <c r="L47" s="10">
-        <v>0</v>
-      </c>
-      <c r="M47" s="13">
-        <v>4.8</v>
-      </c>
-      <c r="N47" s="18">
-        <v>0</v>
-      </c>
-      <c r="O47" s="20">
-        <v>19.7260274</v>
-      </c>
-      <c r="P47" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="14">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="7">
-        <v>47.62</v>
-      </c>
-      <c r="C48" s="8">
-        <v>20</v>
-      </c>
-      <c r="D48" s="6">
-        <v>5.0527513373510267E-2</v>
-      </c>
-      <c r="E48" s="6">
-        <v>6.3428859927140507E-2</v>
-      </c>
-      <c r="F48" s="21">
-        <v>10.4</v>
-      </c>
-      <c r="G48" s="17">
-        <v>23</v>
-      </c>
-      <c r="H48" s="12">
-        <v>5.73</v>
-      </c>
-      <c r="I48" s="14">
-        <v>20813</v>
-      </c>
-      <c r="J48" s="11">
-        <v>1400481</v>
-      </c>
-      <c r="K48" s="18">
-        <v>1</v>
-      </c>
-      <c r="L48" s="10">
-        <v>0</v>
-      </c>
-      <c r="M48" s="13">
-        <v>11.9</v>
-      </c>
-      <c r="N48" s="18">
-        <v>0</v>
-      </c>
-      <c r="O48" s="20">
-        <v>12.5</v>
-      </c>
-      <c r="P48" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="14">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="7">
-        <v>59.15</v>
-      </c>
-      <c r="C49" s="8">
-        <v>41</v>
-      </c>
-      <c r="D49" s="6">
-        <v>1.0755023176337579</v>
-      </c>
-      <c r="E49" s="6">
-        <v>1.0764806984931394</v>
-      </c>
-      <c r="F49" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G49" s="17">
-        <v>12.12</v>
-      </c>
-      <c r="H49" s="12">
-        <v>94.924999999999997</v>
-      </c>
-      <c r="I49" s="14">
-        <v>20636</v>
-      </c>
-      <c r="J49" s="11">
-        <v>992043</v>
-      </c>
-      <c r="K49" s="18">
-        <v>1</v>
-      </c>
-      <c r="L49" s="10">
-        <v>0</v>
-      </c>
-      <c r="M49" s="13">
-        <v>6.5</v>
-      </c>
-      <c r="N49" s="18">
-        <v>1</v>
-      </c>
-      <c r="O49" s="20">
-        <v>34.666666669999998</v>
-      </c>
-      <c r="P49" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="14">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="7">
-        <v>63.9</v>
-      </c>
-      <c r="C50" s="8">
-        <v>58</v>
-      </c>
-      <c r="D50" s="6">
-        <v>0.46078298967866516</v>
-      </c>
-      <c r="E50" s="6">
-        <v>0.28638245928700029</v>
-      </c>
-      <c r="F50" s="21">
-        <v>5.82</v>
-      </c>
-      <c r="G50" s="17">
-        <v>14.8</v>
-      </c>
-      <c r="H50" s="12">
-        <v>19.318999999999999</v>
-      </c>
-      <c r="I50" s="14">
-        <v>22986</v>
-      </c>
-      <c r="J50" s="11">
-        <v>2019876</v>
-      </c>
-      <c r="K50" s="18">
-        <v>1</v>
-      </c>
-      <c r="L50" s="10">
-        <v>0</v>
-      </c>
-      <c r="M50" s="13">
-        <v>5.6</v>
-      </c>
-      <c r="N50" s="18">
-        <v>0</v>
-      </c>
-      <c r="O50" s="20">
-        <v>4.5762711859999996</v>
-      </c>
-      <c r="P50" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="14">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="7">
-        <v>78.22</v>
-      </c>
-      <c r="C51" s="8">
-        <v>70</v>
-      </c>
-      <c r="D51" s="6">
-        <v>2.5181056338937964</v>
-      </c>
-      <c r="E51" s="6">
-        <v>1.206509180922624</v>
-      </c>
-      <c r="F51" s="21">
-        <v>5.82</v>
-      </c>
-      <c r="G51" s="17">
-        <v>20.99</v>
-      </c>
-      <c r="H51" s="12">
-        <v>26.774999999999999</v>
-      </c>
-      <c r="I51" s="14">
-        <v>23876</v>
-      </c>
-      <c r="J51" s="11">
-        <v>1037576</v>
-      </c>
-      <c r="K51" s="18">
-        <v>1</v>
-      </c>
-      <c r="L51" s="10">
-        <v>0</v>
-      </c>
-      <c r="M51" s="13">
-        <v>7.1</v>
-      </c>
-      <c r="N51" s="18">
-        <v>1</v>
-      </c>
-      <c r="O51" s="20">
-        <v>12.826797389999999</v>
-      </c>
-      <c r="P51" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="14">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" s="7">
-        <v>83.66</v>
-      </c>
-      <c r="C52" s="8">
-        <v>64</v>
-      </c>
-      <c r="D52" s="6">
-        <v>5.4322796482375209</v>
-      </c>
-      <c r="E52" s="6">
-        <v>0.1094661551714049</v>
-      </c>
-      <c r="F52" s="21">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="G52" s="17">
-        <v>27.06</v>
-      </c>
-      <c r="H52" s="12">
-        <v>53.588000000000001</v>
-      </c>
-      <c r="I52" s="14">
-        <v>22056</v>
-      </c>
-      <c r="J52" s="11">
-        <v>28439431</v>
-      </c>
-      <c r="K52" s="18">
-        <v>1</v>
-      </c>
-      <c r="L52" s="10">
-        <v>0</v>
-      </c>
-      <c r="M52" s="13">
-        <v>3.9</v>
-      </c>
-      <c r="N52" s="18">
-        <v>0</v>
-      </c>
-      <c r="O52" s="20">
-        <v>16.15384615</v>
-      </c>
-      <c r="P52" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="14">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B53" s="7">
-        <v>35.68</v>
-      </c>
-      <c r="C53" s="8">
-        <v>38</v>
-      </c>
-      <c r="D53" s="6">
-        <v>4.9832091746715518E-2</v>
-      </c>
-      <c r="E53" s="6">
-        <v>0.29257429178364242</v>
-      </c>
-      <c r="F53" s="21">
-        <v>12.1</v>
-      </c>
-      <c r="G53" s="17">
-        <v>12.09</v>
-      </c>
-      <c r="H53" s="12">
-        <v>31.905000000000001</v>
-      </c>
-      <c r="I53" s="14">
-        <v>27115</v>
-      </c>
-      <c r="J53" s="11">
-        <v>1273424</v>
-      </c>
-      <c r="K53" s="18">
-        <v>1</v>
-      </c>
-      <c r="L53" s="10">
-        <v>0</v>
-      </c>
-      <c r="M53" s="13">
-        <v>10.6</v>
-      </c>
-      <c r="N53" s="18">
-        <v>0</v>
-      </c>
-      <c r="O53" s="20">
-        <v>7.8947368420000004</v>
-      </c>
-      <c r="P53" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="14">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="7">
-        <v>79.66</v>
-      </c>
-      <c r="C54" s="8">
-        <v>54</v>
-      </c>
-      <c r="D54" s="6">
-        <v>1.6816609929962922</v>
-      </c>
-      <c r="E54" s="6">
-        <v>6.9811210346756233E-3</v>
-      </c>
-      <c r="F54" s="21">
-        <v>6.86</v>
-      </c>
-      <c r="G54" s="17">
-        <v>18.510000000000002</v>
-      </c>
-      <c r="H54" s="12">
-        <v>8.4049999999999994</v>
-      </c>
-      <c r="I54" s="14">
-        <v>20814</v>
-      </c>
-      <c r="J54" s="11">
-        <v>29081787</v>
-      </c>
-      <c r="K54" s="18">
-        <v>1</v>
-      </c>
-      <c r="L54" s="10">
-        <v>0</v>
-      </c>
-      <c r="M54" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="N54" s="18">
-        <v>0</v>
-      </c>
-      <c r="O54" s="20">
-        <v>7.01754386</v>
-      </c>
-      <c r="P54" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="14">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" s="7">
-        <v>57.71</v>
-      </c>
-      <c r="C55" s="8">
-        <v>70</v>
-      </c>
-      <c r="D55" s="6">
-        <v>0.23799743700648715</v>
-      </c>
-      <c r="E55" s="6">
-        <v>0.92555648244037125</v>
-      </c>
-      <c r="F55" s="21">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="G55" s="17">
-        <v>12.17</v>
-      </c>
-      <c r="H55" s="12">
-        <v>204.85599999999999</v>
-      </c>
-      <c r="I55" s="14">
-        <v>26317</v>
-      </c>
-      <c r="J55" s="11">
-        <v>16845622</v>
-      </c>
-      <c r="K55" s="18">
-        <v>1</v>
-      </c>
-      <c r="L55" s="10">
-        <v>0</v>
-      </c>
-      <c r="M55" s="13">
-        <v>4.8</v>
-      </c>
-      <c r="N55" s="18">
-        <v>1</v>
-      </c>
-      <c r="O55" s="20">
-        <v>23.837209300000001</v>
-      </c>
-      <c r="P55" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="14">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="7">
-        <v>78.45</v>
-      </c>
-      <c r="C56" s="8">
-        <v>43</v>
-      </c>
-      <c r="D56" s="6">
-        <v>0.99532519197285085</v>
-      </c>
-      <c r="E56" s="6">
-        <v>0.16128703022022511</v>
-      </c>
-      <c r="F56" s="21">
-        <v>6.86</v>
-      </c>
-      <c r="G56" s="17">
-        <v>13.56</v>
-      </c>
-      <c r="H56" s="12">
-        <v>36.457000000000001</v>
-      </c>
-      <c r="I56" s="14">
-        <v>25904</v>
-      </c>
-      <c r="J56" s="11">
-        <v>8104316</v>
-      </c>
-      <c r="K56" s="18">
-        <v>1</v>
-      </c>
-      <c r="L56" s="10">
-        <v>0</v>
-      </c>
-      <c r="M56" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="N56" s="18">
-        <v>0</v>
-      </c>
-      <c r="O56" s="20">
-        <v>9.230769231</v>
-      </c>
-      <c r="P56" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="7">
-        <v>82.6</v>
-      </c>
-      <c r="C57" s="8">
-        <v>64</v>
-      </c>
-      <c r="D57" s="6">
-        <v>0.97433392932931673</v>
-      </c>
-      <c r="E57" s="6">
-        <v>9.4061420256682099E-2</v>
-      </c>
-      <c r="F57" s="21">
-        <v>6.86</v>
-      </c>
-      <c r="G57" s="17">
-        <v>19.440000000000001</v>
-      </c>
-      <c r="H57" s="12">
-        <v>11.958</v>
-      </c>
-      <c r="I57" s="14">
-        <v>22736</v>
-      </c>
-      <c r="J57" s="11">
-        <v>29081787</v>
-      </c>
-      <c r="K57" s="18">
-        <v>1</v>
-      </c>
-      <c r="L57" s="10">
-        <v>0</v>
-      </c>
-      <c r="M57" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="N57" s="18">
-        <v>0</v>
-      </c>
-      <c r="O57" s="20">
-        <v>1.0204081629999999</v>
-      </c>
-      <c r="P57" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="14">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58" s="7">
-        <v>57.62</v>
-      </c>
-      <c r="C58" s="8">
-        <v>41</v>
-      </c>
-      <c r="D58" s="6">
-        <v>0.37476671325098415</v>
-      </c>
-      <c r="E58" s="6">
-        <v>3.3735552957858803</v>
-      </c>
-      <c r="F58" s="21">
-        <v>7.68</v>
-      </c>
-      <c r="G58" s="17">
-        <v>13.92</v>
-      </c>
-      <c r="H58" s="12">
-        <v>172.04400000000001</v>
-      </c>
-      <c r="I58" s="14">
-        <v>27585</v>
-      </c>
-      <c r="J58" s="11">
-        <v>1103353</v>
-      </c>
-      <c r="K58" s="18">
-        <v>1</v>
-      </c>
-      <c r="L58" s="10">
-        <v>1</v>
-      </c>
-      <c r="M58" s="13">
-        <v>8.6</v>
-      </c>
-      <c r="N58" s="18">
-        <v>1</v>
-      </c>
-      <c r="O58" s="20">
-        <v>17.241379309999999</v>
-      </c>
-      <c r="P58" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="14">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="7">
-        <v>81.25</v>
-      </c>
-      <c r="C59" s="8">
-        <v>73</v>
-      </c>
-      <c r="D59" s="6">
-        <v>0.88831394288702936</v>
-      </c>
-      <c r="E59" s="6">
-        <v>6.6000851887284152E-3</v>
-      </c>
-      <c r="F59" s="21">
-        <v>6.86</v>
-      </c>
-      <c r="G59" s="17">
-        <v>16.53</v>
-      </c>
-      <c r="H59" s="12">
-        <v>12.112</v>
-      </c>
-      <c r="I59" s="14">
-        <v>22955</v>
-      </c>
-      <c r="J59" s="11">
-        <v>29081787</v>
-      </c>
-      <c r="K59" s="18">
-        <v>1</v>
-      </c>
-      <c r="L59" s="10">
-        <v>0</v>
-      </c>
-      <c r="M59" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="N59" s="18">
-        <v>0</v>
-      </c>
-      <c r="O59" s="20">
-        <v>4.2735042740000004</v>
-      </c>
-      <c r="P59" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B60" s="7">
-        <v>57.79</v>
-      </c>
-      <c r="C60" s="8">
-        <v>12</v>
-      </c>
-      <c r="D60" s="6">
-        <v>0.37790085114577987</v>
-      </c>
-      <c r="E60" s="6">
-        <v>0.25570907368825008</v>
-      </c>
-      <c r="F60" s="21">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="G60" s="17">
-        <v>18.329999999999998</v>
-      </c>
-      <c r="H60" s="12">
-        <v>17.212</v>
-      </c>
-      <c r="I60" s="14">
-        <v>19149</v>
-      </c>
-      <c r="J60" s="11">
-        <v>1129689</v>
-      </c>
-      <c r="K60" s="18">
-        <v>1</v>
-      </c>
-      <c r="L60" s="10">
-        <v>0</v>
-      </c>
-      <c r="M60" s="13">
-        <v>9</v>
-      </c>
-      <c r="N60" s="18">
-        <v>0</v>
-      </c>
-      <c r="O60" s="20">
-        <v>19.892473119999998</v>
-      </c>
-      <c r="P60" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="14">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="7">
-        <v>56.2</v>
-      </c>
-      <c r="C61" s="8">
-        <v>41</v>
-      </c>
-      <c r="D61" s="6">
-        <v>0.35151687615978661</v>
-      </c>
-      <c r="E61" s="6">
-        <v>0.45002374669825634</v>
-      </c>
-      <c r="F61" s="21">
-        <v>5.82</v>
-      </c>
-      <c r="G61" s="17">
-        <v>15</v>
-      </c>
-      <c r="H61" s="12">
-        <v>28.969000000000001</v>
-      </c>
-      <c r="I61" s="14">
-        <v>40903</v>
-      </c>
-      <c r="J61" s="11">
-        <v>50172457</v>
-      </c>
-      <c r="K61" s="18">
-        <v>1</v>
-      </c>
-      <c r="L61" s="10">
-        <v>0</v>
-      </c>
-      <c r="M61" s="13">
-        <v>7.2</v>
-      </c>
-      <c r="N61" s="18">
-        <v>0</v>
-      </c>
-      <c r="O61" s="20">
-        <v>11.75373134</v>
-      </c>
-      <c r="P61" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="14">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="7">
-        <v>68.89</v>
-      </c>
-      <c r="C62" s="8">
-        <v>45</v>
-      </c>
-      <c r="D62" s="6">
-        <v>0.67427330686619913</v>
-      </c>
-      <c r="E62" s="6">
-        <v>0.18173368588221367</v>
-      </c>
-      <c r="F62" s="21">
-        <v>6.86</v>
-      </c>
-      <c r="G62" s="17">
-        <v>20.61</v>
-      </c>
-      <c r="H62" s="12">
-        <v>11.378</v>
-      </c>
-      <c r="I62" s="14">
-        <v>20158</v>
-      </c>
-      <c r="J62" s="11">
-        <v>29081787</v>
-      </c>
-      <c r="K62" s="18">
-        <v>1</v>
-      </c>
-      <c r="L62" s="10">
-        <v>0</v>
-      </c>
-      <c r="M62" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="N62" s="18">
-        <v>0</v>
-      </c>
-      <c r="O62" s="20">
-        <v>0</v>
-      </c>
-      <c r="P62" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="14">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B63" s="7">
-        <v>61.59</v>
-      </c>
-      <c r="C63" s="8">
-        <v>15</v>
-      </c>
-      <c r="D63" s="6">
-        <v>7.0291585629985581E-2</v>
-      </c>
-      <c r="E63" s="6">
-        <v>0.24108001888849123</v>
-      </c>
-      <c r="F63" s="21">
-        <v>7.68</v>
-      </c>
-      <c r="G63" s="17">
-        <v>18.96</v>
-      </c>
-      <c r="H63" s="12">
-        <v>8.7159999999999993</v>
-      </c>
-      <c r="I63" s="14">
-        <v>23868</v>
-      </c>
-      <c r="J63" s="11">
-        <v>1103353</v>
-      </c>
-      <c r="K63" s="18">
-        <v>1</v>
-      </c>
-      <c r="L63" s="10">
-        <v>0</v>
-      </c>
-      <c r="M63" s="13">
-        <v>8.6</v>
-      </c>
-      <c r="N63" s="18">
-        <v>0</v>
-      </c>
-      <c r="O63" s="20">
-        <v>17.543859650000002</v>
-      </c>
-      <c r="P63" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="14">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B64" s="7">
-        <v>46.61</v>
-      </c>
-      <c r="C64" s="8">
-        <v>38</v>
-      </c>
-      <c r="D64" s="6">
-        <v>0.13815640948347999</v>
-      </c>
-      <c r="E64" s="6">
-        <v>2.9455431734026094E-2</v>
-      </c>
-      <c r="F64" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G64" s="17">
-        <v>23.58</v>
-      </c>
-      <c r="H64" s="12">
-        <v>18.169</v>
-      </c>
-      <c r="I64" s="14">
-        <v>20338</v>
-      </c>
-      <c r="J64" s="11">
-        <v>1133621</v>
-      </c>
-      <c r="K64" s="18">
-        <v>1</v>
-      </c>
-      <c r="L64" s="10">
-        <v>0</v>
-      </c>
-      <c r="M64" s="13">
-        <v>8.9</v>
-      </c>
-      <c r="N64" s="18">
-        <v>0</v>
-      </c>
-      <c r="O64" s="20">
-        <v>11.74934726</v>
-      </c>
-      <c r="P64" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="14">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B65" s="7">
-        <v>79.34</v>
-      </c>
-      <c r="C65" s="8">
-        <v>77</v>
-      </c>
-      <c r="D65" s="6">
-        <v>1.2690830475474728</v>
-      </c>
-      <c r="E65" s="6">
-        <v>0.21071962702034053</v>
-      </c>
-      <c r="F65" s="21">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="G65" s="17">
-        <v>33.79</v>
-      </c>
-      <c r="H65" s="12">
-        <v>20.006</v>
-      </c>
-      <c r="I65" s="14">
-        <v>22017</v>
-      </c>
-      <c r="J65" s="11">
-        <v>28439431</v>
-      </c>
-      <c r="K65" s="18">
-        <v>1</v>
-      </c>
-      <c r="L65" s="10">
-        <v>0</v>
-      </c>
-      <c r="M65" s="13">
-        <v>3.9</v>
-      </c>
-      <c r="N65" s="18">
-        <v>0</v>
-      </c>
-      <c r="O65" s="20">
-        <v>8.1521739130000004</v>
-      </c>
-      <c r="P65" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="14">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B66" s="7">
-        <v>74.86</v>
-      </c>
-      <c r="C66" s="8">
-        <v>58</v>
-      </c>
-      <c r="D66" s="6">
-        <v>1.9108970243976249</v>
-      </c>
-      <c r="E66" s="6">
-        <v>2.3223454389328819</v>
-      </c>
-      <c r="F66" s="21">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="G66" s="17">
-        <v>20.34</v>
-      </c>
-      <c r="H66" s="12">
-        <v>68.262</v>
-      </c>
-      <c r="I66" s="14">
-        <v>23399</v>
-      </c>
-      <c r="J66" s="11">
-        <v>19021704</v>
-      </c>
-      <c r="K66" s="18">
-        <v>1</v>
-      </c>
-      <c r="L66" s="10">
-        <v>0</v>
-      </c>
-      <c r="M66" s="13">
-        <v>7.6</v>
-      </c>
-      <c r="N66" s="18">
-        <v>0</v>
-      </c>
-      <c r="O66" s="20">
-        <v>26.351351350000002</v>
-      </c>
-      <c r="P66" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="14">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B67" s="7">
-        <v>64.53</v>
-      </c>
-      <c r="C67" s="8">
-        <v>86</v>
-      </c>
-      <c r="D67" s="6">
-        <v>0.41413244156893947</v>
-      </c>
-      <c r="E67" s="6">
-        <v>9.8429724062005439E-2</v>
-      </c>
-      <c r="F67" s="21">
-        <v>5.82</v>
-      </c>
-      <c r="G67" s="17">
-        <v>24.34</v>
-      </c>
-      <c r="H67" s="12">
-        <v>5.5839999999999996</v>
-      </c>
-      <c r="I67" s="14">
-        <v>22442</v>
-      </c>
-      <c r="J67" s="11">
-        <v>2019876</v>
-      </c>
-      <c r="K67" s="18">
-        <v>1</v>
-      </c>
-      <c r="L67" s="10">
-        <v>0</v>
-      </c>
-      <c r="M67" s="13">
-        <v>5.6</v>
-      </c>
-      <c r="N67" s="18">
-        <v>0</v>
-      </c>
-      <c r="O67" s="20">
-        <v>4.6116504850000002</v>
-      </c>
-      <c r="P67" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="14">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B68" s="7">
-        <v>58.86</v>
-      </c>
-      <c r="C68" s="8">
-        <v>64</v>
-      </c>
-      <c r="D68" s="6">
-        <v>1.6558825748388475</v>
-      </c>
-      <c r="E68" s="6">
-        <v>4.000699472945775</v>
-      </c>
-      <c r="F68" s="21">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="G68" s="17">
-        <v>9.74</v>
-      </c>
-      <c r="H68" s="12">
-        <v>791.41300000000001</v>
-      </c>
-      <c r="I68" s="14">
-        <v>28181</v>
-      </c>
-      <c r="J68" s="11">
-        <v>7769867</v>
-      </c>
-      <c r="K68" s="18">
-        <v>1</v>
-      </c>
-      <c r="L68" s="10">
-        <v>1</v>
-      </c>
-      <c r="M68" s="13">
-        <v>10.5</v>
-      </c>
-      <c r="N68" s="18">
-        <v>1</v>
-      </c>
-      <c r="O68" s="20">
-        <v>18.382352940000001</v>
-      </c>
-      <c r="P68" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="14">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="14"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="20"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="14"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="20"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="14"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="20"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="14"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="14"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="20"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="14"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="20"/>
-      <c r="P75" s="10"/>
-      <c r="Q75" s="14"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" s="5"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="20"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="14"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="5"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="20"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="14"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="20"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="14"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A79" s="5"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="20"/>
-      <c r="P79" s="10"/>
-      <c r="Q79" s="14"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="20"/>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="14"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A81" s="5"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="20"/>
-      <c r="P81" s="10"/>
-      <c r="Q81" s="14"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A82" s="5"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="20"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="14"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="20"/>
-      <c r="P83" s="10"/>
-      <c r="Q83" s="14"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A84" s="5"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="13"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="20"/>
-      <c r="P84" s="10"/>
-      <c r="Q84" s="14"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A85" s="5"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="18"/>
-      <c r="O85" s="20"/>
-      <c r="P85" s="10"/>
-      <c r="Q85" s="14"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A86" s="5"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="18"/>
-      <c r="O86" s="20"/>
-      <c r="P86" s="10"/>
-      <c r="Q86" s="14"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A87" s="5"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="18"/>
-      <c r="O87" s="20"/>
-      <c r="P87" s="10"/>
-      <c r="Q87" s="14"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A88" s="5"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="20"/>
-      <c r="P88" s="10"/>
-      <c r="Q88" s="14"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A89" s="5"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="13"/>
-      <c r="N89" s="18"/>
-      <c r="O89" s="20"/>
-      <c r="P89" s="10"/>
-      <c r="Q89" s="14"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A90" s="5"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="20"/>
-      <c r="P90" s="10"/>
-      <c r="Q90" s="14"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A91" s="24"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="18"/>
-      <c r="O91" s="20"/>
-      <c r="P91" s="10"/>
-      <c r="Q91" s="14"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A92" s="5"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="13"/>
-      <c r="N92" s="18"/>
-      <c r="O92" s="20"/>
-      <c r="P92" s="10"/>
-      <c r="Q92" s="14"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A93" s="5"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="10"/>
-      <c r="M93" s="13"/>
-      <c r="N93" s="18"/>
-      <c r="O93" s="20"/>
-      <c r="P93" s="10"/>
-      <c r="Q93" s="14"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A94" s="5"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="18"/>
-      <c r="L94" s="10"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="18"/>
-      <c r="O94" s="20"/>
-      <c r="P94" s="10"/>
-      <c r="Q94" s="14"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A95" s="5"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="18"/>
-      <c r="L95" s="10"/>
-      <c r="M95" s="13"/>
-      <c r="N95" s="18"/>
-      <c r="O95" s="20"/>
-      <c r="P95" s="10"/>
-      <c r="Q95" s="14"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A96" s="5"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="10"/>
-      <c r="M96" s="13"/>
-      <c r="N96" s="18"/>
-      <c r="O96" s="20"/>
-      <c r="P96" s="10"/>
-      <c r="Q96" s="14"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A97" s="5"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="18"/>
-      <c r="L97" s="10"/>
-      <c r="M97" s="13"/>
-      <c r="N97" s="18"/>
-      <c r="O97" s="20"/>
-      <c r="P97" s="10"/>
-      <c r="Q97" s="14"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A98" s="5"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="10"/>
-      <c r="M98" s="13"/>
-      <c r="N98" s="18"/>
-      <c r="O98" s="20"/>
-      <c r="P98" s="10"/>
-      <c r="Q98" s="14"/>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A99" s="5"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="10"/>
-      <c r="M99" s="13"/>
-      <c r="N99" s="18"/>
-      <c r="O99" s="20"/>
-      <c r="P99" s="10"/>
-      <c r="Q99" s="14"/>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A100" s="5"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="10"/>
-      <c r="M100" s="13"/>
-      <c r="N100" s="18"/>
-      <c r="O100" s="20"/>
-      <c r="P100" s="10"/>
-      <c r="Q100" s="14"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A101" s="5"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="18"/>
-      <c r="L101" s="10"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="18"/>
-      <c r="O101" s="20"/>
-      <c r="P101" s="10"/>
-      <c r="Q101" s="14"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A102" s="5"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="18"/>
-      <c r="L102" s="10"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="18"/>
-      <c r="O102" s="20"/>
-      <c r="P102" s="10"/>
-      <c r="Q102" s="14"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A103" s="5"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="12"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="10"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="18"/>
-      <c r="O103" s="20"/>
-      <c r="P103" s="10"/>
-      <c r="Q103" s="14"/>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A104" s="5"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="18"/>
-      <c r="L104" s="10"/>
-      <c r="M104" s="13"/>
-      <c r="N104" s="18"/>
-      <c r="O104" s="20"/>
-      <c r="P104" s="10"/>
-      <c r="Q104" s="14"/>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A105" s="5"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="18"/>
-      <c r="L105" s="10"/>
-      <c r="M105" s="13"/>
-      <c r="N105" s="18"/>
-      <c r="O105" s="20"/>
-      <c r="P105" s="10"/>
-      <c r="Q105" s="14"/>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A106" s="5"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="18"/>
-      <c r="L106" s="10"/>
-      <c r="M106" s="13"/>
-      <c r="N106" s="18"/>
-      <c r="O106" s="20"/>
-      <c r="P106" s="10"/>
-      <c r="Q106" s="14"/>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A107" s="5"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="11"/>
-      <c r="K107" s="18"/>
-      <c r="L107" s="10"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="18"/>
-      <c r="O107" s="20"/>
-      <c r="P107" s="10"/>
-      <c r="Q107" s="14"/>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A108" s="5"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="11"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="10"/>
-      <c r="M108" s="13"/>
-      <c r="N108" s="18"/>
-      <c r="O108" s="20"/>
-      <c r="P108" s="10"/>
-      <c r="Q108" s="14"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A109" s="5"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="11"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="10"/>
-      <c r="M109" s="13"/>
-      <c r="N109" s="18"/>
-      <c r="O109" s="20"/>
-      <c r="P109" s="10"/>
-      <c r="Q109" s="14"/>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A110" s="5"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="14"/>
-      <c r="J110" s="11"/>
-      <c r="K110" s="18"/>
-      <c r="L110" s="10"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="18"/>
-      <c r="O110" s="20"/>
-      <c r="P110" s="10"/>
-      <c r="Q110" s="14"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A111" s="5"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="10"/>
-      <c r="M111" s="13"/>
-      <c r="N111" s="18"/>
-      <c r="O111" s="20"/>
-      <c r="P111" s="10"/>
-      <c r="Q111" s="14"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A112" s="5"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="10"/>
-      <c r="M112" s="13"/>
-      <c r="N112" s="18"/>
-      <c r="O112" s="20"/>
-      <c r="P112" s="10"/>
-      <c r="Q112" s="14"/>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A113" s="5"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="11"/>
-      <c r="K113" s="18"/>
-      <c r="L113" s="10"/>
-      <c r="M113" s="13"/>
-      <c r="N113" s="18"/>
-      <c r="O113" s="20"/>
-      <c r="P113" s="10"/>
-      <c r="Q113" s="14"/>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A114" s="5"/>
-      <c r="B114" s="23"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="11"/>
-      <c r="K114" s="18"/>
-      <c r="L114" s="10"/>
-      <c r="M114" s="13"/>
-      <c r="N114" s="18"/>
-      <c r="O114" s="20"/>
-      <c r="P114" s="10"/>
-      <c r="Q114" s="14"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A115" s="5"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="18"/>
-      <c r="L115" s="10"/>
-      <c r="M115" s="13"/>
-      <c r="N115" s="18"/>
-      <c r="O115" s="20"/>
-      <c r="P115" s="10"/>
-      <c r="Q115" s="14"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:Q115" xr:uid="{DD345B04-7060-0341-8F27-5AFB149EB035}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q115">
-      <sortCondition descending="1" ref="K1:K115"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>